--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B0DA37A5-84BB-41B1-9E9B-D7BFDCD56810}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33481AE2-0411-460D-86DB-60A08C045B25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="557">
   <si>
     <t>Sprint</t>
   </si>
@@ -1712,6 +1712,9 @@
   </si>
   <si>
     <t>abono no debe ser mayor a deuda porque si deja agregar un numero mayor y devuelve un debe negativo pero si lo cacha al hacer el abono</t>
+  </si>
+  <si>
+    <t>agregar fecha de caducidad a un producto que se crea</t>
   </si>
 </sst>
 </file>
@@ -6882,8 +6885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7462,6 +7465,9 @@
       <c r="A52" t="s">
         <v>480</v>
       </c>
+      <c r="D52" t="s">
+        <v>556</v>
+      </c>
       <c r="M52" t="s">
         <v>208</v>
       </c>
@@ -8048,7 +8054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
   <dimension ref="A2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33481AE2-0411-460D-86DB-60A08C045B25}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93D870FF-BDAD-4085-A2FC-F2872D458F26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="570">
   <si>
     <t>Sprint</t>
   </si>
@@ -1639,51 +1639,21 @@
     <t>PRODUCTOS</t>
   </si>
   <si>
-    <t>Columna3</t>
-  </si>
-  <si>
     <t>EDITAR SUCURSALES</t>
   </si>
   <si>
-    <t>VER SUCURSALES ACTIVOS</t>
-  </si>
-  <si>
     <t>ALTA DE SUCURSALES</t>
   </si>
   <si>
     <t>BAJA SUCURSALES</t>
   </si>
   <si>
-    <t>AGREGAR EMPLEADOS  A SUCURSALES</t>
-  </si>
-  <si>
-    <t>ELIMINAR EMPLEADOS DE SUCURSAL</t>
-  </si>
-  <si>
-    <t>DAR PERMISO A EMPLEADOS POR SUCURSAL</t>
-  </si>
-  <si>
-    <t>LOGEO DE ADMINISTRADOR A DIFERENTES SUCURSALES</t>
-  </si>
-  <si>
-    <t>LOGEO DE EMPLEADOS A DIFERENTES SUCURSALES</t>
-  </si>
-  <si>
     <t>EDITAR DATOS DEL ADMINISTRADOR</t>
   </si>
   <si>
     <t>NUEVOS ERRORES  22-05-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">1) USUARIO: farmaciasgi@gmail.com,                  </t>
-  </si>
-  <si>
-    <t>AGREGAR CLIENTE</t>
-  </si>
-  <si>
-    <t>VER CLIENTES</t>
-  </si>
-  <si>
     <t>Agregar boton cancelar en los edit ?</t>
   </si>
   <si>
@@ -1693,12 +1663,6 @@
     <t>TESTEADO</t>
   </si>
   <si>
-    <t>consultar clientes deudores activos</t>
-  </si>
-  <si>
-    <t>abonar a cuenta</t>
-  </si>
-  <si>
     <t>imprimir ticket abono deudores</t>
   </si>
   <si>
@@ -1715,13 +1679,88 @@
   </si>
   <si>
     <t>agregar fecha de caducidad a un producto que se crea</t>
+  </si>
+  <si>
+    <t>DAR DE BAJA EMPLEADOS DE SUCURSAL</t>
+  </si>
+  <si>
+    <t>ELIMINAR empleados</t>
+  </si>
+  <si>
+    <t>LOGUEO DE ADMINISTRADOR A DIFERENTES SUCURSALES</t>
+  </si>
+  <si>
+    <t>LOGUEO DE EMPLEADOS A DIFERENTES SUCURSALES</t>
+  </si>
+  <si>
+    <t>AGREGAR ICONO REGRESAR EN VISTA CREAR COMPRA?</t>
+  </si>
+  <si>
+    <t>VER COMPRAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>HACER PAGO A COMPRASPOR PAGAR</t>
+  </si>
+  <si>
+    <t>GENERAR E IMPRIMIR REPORTE INVENTARIO</t>
+  </si>
+  <si>
+    <t>CONSULTAR SUCURSALES</t>
+  </si>
+  <si>
+    <t>AGREGAR EMPLEADOS  A SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR PERMISO A EMPLEADOS EN SUCURSAL</t>
+  </si>
+  <si>
+    <t>65% DE AVANCE</t>
+  </si>
+  <si>
+    <t>AGREGAR NOMBRE DE SUCURSAL</t>
+  </si>
+  <si>
+    <t>cambiar input direccion de sucursal para hacerlo mas ancho</t>
+  </si>
+  <si>
+    <t>error si solo edito el numero telefonico</t>
+  </si>
+  <si>
+    <t>boton cancelar en editar sucursal?</t>
+  </si>
+  <si>
+    <t>DATOS ADMON: DOMICILIO DE LA SUCURSAL PRINCIPAL, TELEFONO PRINCIPAL?</t>
+  </si>
+  <si>
+    <t>los genericos requieren receta?</t>
+  </si>
+  <si>
+    <t>desaparecer los mensajes de confirmacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer incapie en venta para medicamentos con receta ? </t>
+  </si>
+  <si>
+    <t>VENTAS A CREDITO NO DEBE DEVOLVER</t>
+  </si>
+  <si>
+    <t>TARDO EN CARGAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>EXISTENCIA SUBPRODUCTO CUANTOS MAXIMO&lt;</t>
+  </si>
+  <si>
+    <t>corregir existencias de subproductos</t>
+  </si>
+  <si>
+    <t>imprimir ticket checar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,6 +1841,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1905,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1950,6 +1996,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,13 +2227,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F59CA907-6B32-460D-91F0-51FC625E81E9}" name="Tabla57" displayName="Tabla57" ref="B4:E68" totalsRowShown="0">
-  <autoFilter ref="B4:E68" xr:uid="{7E2D4A85-178B-4F5B-8918-0DF68ADF3952}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F59CA907-6B32-460D-91F0-51FC625E81E9}" name="Tabla57" displayName="Tabla57" ref="B4:D98" totalsRowShown="0">
+  <autoFilter ref="B4:D98" xr:uid="{7E2D4A85-178B-4F5B-8918-0DF68ADF3952}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D81F8A66-4F2E-49E8-BA78-3621DBE648C2}" name="Columna1"/>
     <tableColumn id="5" xr3:uid="{4BB68CB8-6029-4F0E-984D-EB03447D6316}" name="TESTEADO"/>
     <tableColumn id="2" xr3:uid="{98B5F2E0-8801-49B8-ACBC-A371368A4A5B}" name="Columna2"/>
-    <tableColumn id="3" xr3:uid="{531D3BF0-DEBB-481E-8426-619E38A9ABFA}" name="Columna3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6885,8 +6931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,7 +7433,7 @@
         <v>513</v>
       </c>
       <c r="D44" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="M44" t="s">
         <v>202</v>
@@ -7398,7 +7444,7 @@
         <v>9512861203</v>
       </c>
       <c r="D45" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M45" t="s">
         <v>203</v>
@@ -7409,7 +7455,7 @@
         <v>514</v>
       </c>
       <c r="D46" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -7417,7 +7463,7 @@
         <v>515</v>
       </c>
       <c r="D47" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="M47" t="s">
         <v>204</v>
@@ -7425,7 +7471,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M48" t="s">
         <v>205</v>
@@ -7436,7 +7482,7 @@
         <v>477</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M49" t="s">
         <v>206</v>
@@ -7447,7 +7493,7 @@
         <v>478</v>
       </c>
       <c r="D50" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="M50" t="s">
         <v>207</v>
@@ -7458,7 +7504,7 @@
         <v>479</v>
       </c>
       <c r="D51" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -7466,7 +7512,7 @@
         <v>480</v>
       </c>
       <c r="D52" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7476,6 +7522,9 @@
       <c r="A53" t="s">
         <v>481</v>
       </c>
+      <c r="D53" t="s">
+        <v>549</v>
+      </c>
       <c r="M53" t="s">
         <v>209</v>
       </c>
@@ -7484,6 +7533,9 @@
       <c r="A54" t="s">
         <v>482</v>
       </c>
+      <c r="D54" t="s">
+        <v>557</v>
+      </c>
       <c r="M54" t="s">
         <v>210</v>
       </c>
@@ -7492,6 +7544,9 @@
       <c r="A55" t="s">
         <v>483</v>
       </c>
+      <c r="D55" t="s">
+        <v>558</v>
+      </c>
       <c r="M55" t="s">
         <v>211</v>
       </c>
@@ -7500,6 +7555,9 @@
       <c r="A56" t="s">
         <v>484</v>
       </c>
+      <c r="D56" t="s">
+        <v>559</v>
+      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -7511,19 +7569,33 @@
       <c r="B57" t="s">
         <v>360</v>
       </c>
+      <c r="D57" t="s">
+        <v>560</v>
+      </c>
       <c r="M57" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>486</v>
       </c>
+      <c r="D59" t="s">
+        <v>562</v>
+      </c>
       <c r="M59" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>563</v>
+      </c>
       <c r="M60" t="s">
         <v>204</v>
       </c>
@@ -7532,6 +7604,9 @@
       <c r="A61" t="s">
         <v>487</v>
       </c>
+      <c r="D61" t="s">
+        <v>564</v>
+      </c>
       <c r="M61" t="s">
         <v>205</v>
       </c>
@@ -7540,6 +7615,9 @@
       <c r="A62" t="s">
         <v>488</v>
       </c>
+      <c r="D62" t="s">
+        <v>565</v>
+      </c>
       <c r="M62" t="s">
         <v>206</v>
       </c>
@@ -7551,6 +7629,9 @@
       <c r="B63" t="s">
         <v>369</v>
       </c>
+      <c r="D63" t="s">
+        <v>566</v>
+      </c>
       <c r="M63" t="s">
         <v>207</v>
       </c>
@@ -7559,6 +7640,9 @@
       <c r="A64" t="s">
         <v>490</v>
       </c>
+      <c r="D64" t="s">
+        <v>567</v>
+      </c>
       <c r="M64" t="s">
         <v>208</v>
       </c>
@@ -7567,6 +7651,9 @@
       <c r="A65" t="s">
         <v>383</v>
       </c>
+      <c r="D65" t="s">
+        <v>568</v>
+      </c>
       <c r="M65" t="s">
         <v>209</v>
       </c>
@@ -7574,6 +7661,9 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>491</v>
+      </c>
+      <c r="D66" t="s">
+        <v>569</v>
       </c>
       <c r="M66" t="s">
         <v>210</v>
@@ -8052,53 +8142,47 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A2:I109"/>
+  <dimension ref="A2:I139"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>330</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" t="s">
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
       </c>
-      <c r="E4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>338</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="30" t="s">
         <v>194</v>
       </c>
@@ -8106,637 +8190,607 @@
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>539</v>
-      </c>
-      <c r="E7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="D8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
         <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="23" t="s">
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="23" t="s">
         <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="23" t="s">
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="D14" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="D15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
+      <c r="D17" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D18" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="C19" t="s">
+        <v>241</v>
+      </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="31"/>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>399</v>
-      </c>
       <c r="B25" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D25" t="s">
-        <v>182</v>
+      <c r="D25" s="30" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>337</v>
-      </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="30"/>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="30"/>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="D29" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>400</v>
-      </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>342</v>
-      </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="D32" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="D33" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>348</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
+      <c r="B35" s="30"/>
       <c r="D35" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" t="s">
-        <v>241</v>
-      </c>
+      <c r="B36" s="30"/>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" t="s">
-        <v>241</v>
-      </c>
+      <c r="B37" s="30"/>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" t="s">
-        <v>241</v>
-      </c>
+      <c r="B38" s="30"/>
       <c r="D38" t="s">
-        <v>545</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>193</v>
+      <c r="B39" s="30"/>
+      <c r="D39" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>343</v>
-      </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>344</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>197</v>
+      <c r="B41" s="30"/>
+      <c r="D41" s="30" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>350</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>186</v>
+      <c r="B43" s="30"/>
+      <c r="D43" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
+      <c r="D44" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31"/>
+      <c r="D45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="D47" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="D48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="31"/>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="31"/>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="D56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="D57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="D58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="D59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="D60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="D62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="31"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
+      <c r="D65" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="30"/>
+      <c r="D68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="30"/>
+      <c r="D69" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="30"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D45" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="D46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="30" t="s">
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="30"/>
+      <c r="D72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="30"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="30" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>354</v>
-      </c>
-      <c r="B50" s="30" t="s">
+      <c r="D74" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="30"/>
+      <c r="D75" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="30" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="30" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="30"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>356</v>
-      </c>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="B54" s="30" t="s">
+      <c r="D78" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="30"/>
+      <c r="D79" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="30"/>
+      <c r="D80" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="30"/>
+      <c r="D81" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="31"/>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="23"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>357</v>
-      </c>
-      <c r="B55" s="32" t="s">
+      <c r="C84" s="23"/>
+      <c r="D84" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B56" s="32" t="s">
+      <c r="C85" s="29"/>
+      <c r="D85" s="28"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>362</v>
-      </c>
-      <c r="B57" s="32" t="s">
+      <c r="C86" s="29"/>
+      <c r="D86" s="28"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B58" s="32" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="28"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>364</v>
-      </c>
-      <c r="B59" s="32" t="s">
+      <c r="C88" s="29"/>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>402</v>
-      </c>
-      <c r="B60" s="33" t="s">
+      <c r="C89" s="29"/>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>365</v>
-      </c>
-      <c r="B61" s="33" t="s">
+      <c r="C90" s="17"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>359</v>
-      </c>
-      <c r="B62" s="33" t="s">
+      <c r="C91" s="17"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="C92" s="17"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="I109" s="26" t="s">
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I139" s="26" t="s">
         <v>454</v>
       </c>
     </row>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93D870FF-BDAD-4085-A2FC-F2872D458F26}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD800CFC-35EC-4195-9ED1-7351FA309E50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="571">
   <si>
     <t>Sprint</t>
   </si>
@@ -783,15 +783,6 @@
     <t>El&lt;iminar empleado</t>
   </si>
   <si>
-    <t>cantidad de compra</t>
-  </si>
-  <si>
-    <t>cantidad de venta</t>
-  </si>
-  <si>
-    <t>cantidad de ganancia</t>
-  </si>
-  <si>
     <t>cantidad de inventario por sucursal</t>
   </si>
   <si>
@@ -834,9 +825,6 @@
     <t>borrar detalle en devolucion</t>
   </si>
   <si>
-    <t>PIDIO ASESORA EXTERNA</t>
-  </si>
-  <si>
     <t>agregar rutas  poner url o que parte estamos</t>
   </si>
   <si>
@@ -930,9 +918,6 @@
     <t xml:space="preserve">el cliente se agrego correctamente </t>
   </si>
   <si>
-    <t>paginate de inventario?</t>
-  </si>
-  <si>
     <t>paginar</t>
   </si>
   <si>
@@ -972,9 +957,6 @@
     <t>el administrador no puede seleccionar clientes para verlos</t>
   </si>
   <si>
-    <t>EN EL BUSCADOR DE INVENTARIO QUITAR SUBPRODUCTOS Y OFERTAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONFIRMAR EDITAR PRODUCTO </t>
   </si>
   <si>
@@ -1020,12 +1002,6 @@
     <t>inventario rapido</t>
   </si>
   <si>
-    <t>CALCULAR GANACIAS</t>
-  </si>
-  <si>
-    <t>CALCULAR PERDIDAS*</t>
-  </si>
-  <si>
     <t>MONITOREO</t>
   </si>
   <si>
@@ -1164,9 +1140,6 @@
     <t>OFERTAS</t>
   </si>
   <si>
-    <t>NO SE VE NADA EN OFERTA</t>
-  </si>
-  <si>
     <t>CREAR SUCURSAL</t>
   </si>
   <si>
@@ -1179,9 +1152,6 @@
     <t>CONSULTAR SUCURSAL</t>
   </si>
   <si>
-    <t>AGREGAR CONSULTAR EN TODOS</t>
-  </si>
-  <si>
     <t>ALTA SUCURSAL</t>
   </si>
   <si>
@@ -1284,9 +1254,6 @@
     <t>cargar todas las ofertas y todos los subproductos</t>
   </si>
   <si>
-    <t>checar que la eñe se registre bien en la bd tanto en el servidor como local</t>
-  </si>
-  <si>
     <t>{{ url('/puntoVenta/altaSucursal/` + Suc_Inac[t].id + `')}}</t>
   </si>
   <si>
@@ -1338,9 +1305,6 @@
     <t>checar cantidad de ventas al diA CORTE CAJA</t>
   </si>
   <si>
-    <t>SE MUERE EN CORTE DE CAJA</t>
-  </si>
-  <si>
     <t>pedir clave del empleado en los movimientos</t>
   </si>
   <si>
@@ -1368,15 +1332,9 @@
     <t xml:space="preserve">seguimiento del pedido actual </t>
   </si>
   <si>
-    <t>terminar manual de usuario</t>
-  </si>
-  <si>
     <t>CHECAR BIEN EL BUSCADOR DE PRODUCTO</t>
   </si>
   <si>
-    <t>VALIDAR CAMPOS</t>
-  </si>
-  <si>
     <t>MANDAR MENSAJES DE CONFIRMACION</t>
   </si>
   <si>
@@ -1393,9 +1351,6 @@
   </si>
   <si>
     <t>STOCK O INVENTARIO</t>
-  </si>
-  <si>
-    <t>VERIFICAR:</t>
   </si>
   <si>
     <t>REALIZADOS</t>
@@ -1417,9 +1372,6 @@
     <t>imprimir ticket abono deudores.ticket en devolucion</t>
   </si>
   <si>
-    <t>testear vistas punto venta. Modulos testear</t>
-  </si>
-  <si>
     <t>Programar en cierto tiempo los mensajes de confirmacion</t>
   </si>
   <si>
@@ -1495,9 +1447,6 @@
     <t xml:space="preserve">TODAS LAS SUCURSALES. </t>
   </si>
   <si>
-    <t xml:space="preserve">Pagos de paypal. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cotizaciones. </t>
   </si>
   <si>
@@ -1540,9 +1489,6 @@
     <t>corregir formato de corte de caja</t>
   </si>
   <si>
-    <t>terminar reportes diarios como lo quiere la doctora</t>
-  </si>
-  <si>
     <t>orregir reporte de inventario: solo funciona con salidas</t>
   </si>
   <si>
@@ -1558,9 +1504,6 @@
     <t>darle responsibidad a vistas del ecomerce</t>
   </si>
   <si>
-    <t>impresión directo del ticket</t>
-  </si>
-  <si>
     <t>vistas de seguimiento de pedido</t>
   </si>
   <si>
@@ -1609,12 +1552,6 @@
     <t>tener 10 valores diferentes para las pruebas</t>
   </si>
   <si>
-    <t>** probar una vez cargados nuevos datos</t>
-  </si>
-  <si>
-    <t>AQUÍ</t>
-  </si>
-  <si>
     <t>checar las observaciones que dijo Sorroza del proyecto</t>
   </si>
   <si>
@@ -1627,9 +1564,6 @@
     <t>values(new.codigoArticulo,  new.nombreArticulo, new.precio, now() )</t>
   </si>
   <si>
-    <t>el error de no hay productos aparece despues al crear subproducto</t>
-  </si>
-  <si>
     <t>DATOS PARA TESTEAR SISTEMA</t>
   </si>
   <si>
@@ -1717,9 +1651,6 @@
     <t>65% DE AVANCE</t>
   </si>
   <si>
-    <t>AGREGAR NOMBRE DE SUCURSAL</t>
-  </si>
-  <si>
     <t>cambiar input direccion de sucursal para hacerlo mas ancho</t>
   </si>
   <si>
@@ -1753,7 +1684,79 @@
     <t>corregir existencias de subproductos</t>
   </si>
   <si>
-    <t>imprimir ticket checar</t>
+    <t>agregar iconos en departmentos</t>
+  </si>
+  <si>
+    <t>ACOMODAR BOTON GUARDAR PRODUCTO EN CREAR NUEVO</t>
+  </si>
+  <si>
+    <t>CHECAR COSTO Y PRECIO INV AL BUSCAR PRODUCTO</t>
+  </si>
+  <si>
+    <t>CONFIRMAR ALTA DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>SE TARDA MUCHO SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>INPUT PIEZAS SOLO ENTEROS SUBPRODUCTOS</t>
+  </si>
+  <si>
+    <t>DESCRIPCION EN OBSERVACION</t>
+  </si>
+  <si>
+    <t>VERIIFICAR BIEN PROCESO DE AGREGAR DE STOCK SUBPROUCTOS</t>
+  </si>
+  <si>
+    <t>CAMBIAR TEXTOS DE EXISTENCIAS DE SUBPRODUCTOS: EXISTENCIA NUEVO</t>
+  </si>
+  <si>
+    <t>EN PROVEEDORES-&gt; DIRECCION AGREGAR TEXT-AREA</t>
+  </si>
+  <si>
+    <t>expandir tabla compras</t>
+  </si>
+  <si>
+    <t>agregar ojito en compra</t>
+  </si>
+  <si>
+    <t>cerrar en modal info adi compras</t>
+  </si>
+  <si>
+    <t>VER CLAVE EN COBRAR VENTA</t>
+  </si>
+  <si>
+    <t>ERRORES CORREGIDOS</t>
+  </si>
+  <si>
+    <t>HACER</t>
+  </si>
+  <si>
+    <t>HACER NO RELEVANTES</t>
+  </si>
+  <si>
+    <t>DOCUMENTACION</t>
+  </si>
+  <si>
+    <t>ECOMMERVE</t>
+  </si>
+  <si>
+    <t>BUSCAR POR TIPOS PRODUCTOS</t>
+  </si>
+  <si>
+    <t>NO ES NECESARIO</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>checar reporte inv: cant antes, cant. Despues</t>
+  </si>
+  <si>
+    <t>desabilitar boton imprimir</t>
   </si>
 </sst>
 </file>
@@ -3119,611 +3122,611 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M13" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M16" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M17" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M19" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M20" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M21" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M22" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M24" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M26" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E27" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M27" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E28" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M28" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E29" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M29" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E30" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E31" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M33" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M34" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M36" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M38" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M51" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M53" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M55" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M57" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M59" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M61" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M63" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M64" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M69" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M73" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6929,36 +6932,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>450</v>
-      </c>
+      <c r="A1" s="26"/>
       <c r="M1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
       <c r="M2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" t="s">
+        <v>561</v>
       </c>
       <c r="M3" t="s">
         <v>221</v>
@@ -6972,7 +6987,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
       </c>
       <c r="M4" t="s">
         <v>225</v>
@@ -6985,8 +7003,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>484</v>
+      </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>434</v>
+      </c>
+      <c r="F5" t="s">
+        <v>406</v>
       </c>
       <c r="M5" t="s">
         <v>226</v>
@@ -7000,7 +7024,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>456</v>
+        <v>420</v>
+      </c>
+      <c r="F6" t="s">
+        <v>422</v>
       </c>
       <c r="M6" t="s">
         <v>227</v>
@@ -7013,11 +7040,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>417</v>
-      </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>442</v>
+      </c>
+      <c r="F7" t="s">
+        <v>400</v>
       </c>
       <c r="M7" t="s">
         <v>235</v>
@@ -7027,11 +7054,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>425</v>
-      </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>414</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
       </c>
       <c r="M8" t="s">
         <v>231</v>
@@ -7041,11 +7068,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>431</v>
-      </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="M9" t="s">
         <v>222</v>
@@ -7055,22 +7079,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>432</v>
-      </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>565</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
       </c>
       <c r="M10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>433</v>
-      </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="M11" t="s">
         <v>228</v>
@@ -7080,13 +7101,25 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>540</v>
+      </c>
+      <c r="E12" t="s">
+        <v>564</v>
+      </c>
       <c r="M12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>493</v>
+        <v>537</v>
+      </c>
+      <c r="E13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" t="s">
+        <v>568</v>
       </c>
       <c r="M13" t="s">
         <v>230</v>
@@ -7096,404 +7129,291 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>437</v>
-      </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>514</v>
+      </c>
+      <c r="E14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F14" t="s">
+        <v>500</v>
       </c>
       <c r="M14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F15" t="s">
+        <v>298</v>
+      </c>
       <c r="M15" t="s">
         <v>233</v>
       </c>
       <c r="O15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>440</v>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" t="s">
+        <v>300</v>
       </c>
       <c r="M16" t="s">
         <v>234</v>
       </c>
       <c r="O16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>325</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>495</v>
+        <v>541</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-      <c r="F18" t="s">
-        <v>521</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>463</v>
       </c>
       <c r="M18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" t="s">
+        <v>567</v>
+      </c>
+      <c r="M19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>319</v>
+      </c>
+      <c r="M20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>320</v>
+      </c>
+      <c r="M21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" t="s">
+        <v>423</v>
+      </c>
+      <c r="M23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" t="s">
-        <v>497</v>
-      </c>
-      <c r="M19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="M20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" t="s">
         <v>498</v>
       </c>
-      <c r="F21" t="s">
-        <v>522</v>
-      </c>
-      <c r="M21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>522</v>
-      </c>
-      <c r="M22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>501</v>
-      </c>
-      <c r="F23" t="s">
-        <v>522</v>
-      </c>
-      <c r="M23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24" t="s">
-        <v>522</v>
-      </c>
       <c r="M24" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" t="s">
-        <v>504</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>486</v>
       </c>
       <c r="M25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" t="s">
-        <v>503</v>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>487</v>
+      </c>
+      <c r="F26" t="s">
+        <v>569</v>
       </c>
       <c r="M26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>378</v>
-      </c>
-      <c r="D27" t="s">
-        <v>519</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" t="s">
+        <v>570</v>
       </c>
       <c r="M27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" t="s">
-        <v>505</v>
-      </c>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>489</v>
+      </c>
+      <c r="F28" s="23"/>
       <c r="M28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>497</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="M29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>485</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="M30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" t="s">
-        <v>506</v>
-      </c>
-      <c r="M29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" t="s">
-        <v>507</v>
-      </c>
-      <c r="M30" t="s">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" t="s">
-        <v>508</v>
-      </c>
-      <c r="M31" t="s">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" t="s">
-        <v>516</v>
-      </c>
-      <c r="M32" t="s">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D33" t="s">
-        <v>517</v>
-      </c>
-      <c r="M33" t="s">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>457</v>
-      </c>
-      <c r="D34" t="s">
-        <v>518</v>
-      </c>
-      <c r="M34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>441</v>
-      </c>
-      <c r="D35" t="s">
-        <v>520</v>
-      </c>
-      <c r="M35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" t="s">
-        <v>523</v>
-      </c>
-      <c r="M36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>299</v>
-      </c>
-      <c r="M37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>303</v>
-      </c>
-      <c r="D38" t="s">
-        <v>524</v>
-      </c>
-      <c r="M38" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D39" t="s">
-        <v>525</v>
-      </c>
-      <c r="M39" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>509</v>
-      </c>
-      <c r="D40" t="s">
-        <v>526</v>
-      </c>
-      <c r="M40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>510</v>
-      </c>
-      <c r="M41" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>511</v>
-      </c>
-      <c r="D42" t="s">
-        <v>527</v>
-      </c>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>512</v>
-      </c>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>513</v>
-      </c>
-      <c r="D44" t="s">
-        <v>535</v>
       </c>
       <c r="M44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9512861203</v>
-      </c>
-      <c r="D45" t="s">
-        <v>542</v>
-      </c>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>514</v>
-      </c>
-      <c r="D46" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>515</v>
-      </c>
-      <c r="D47" t="s">
-        <v>537</v>
-      </c>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>539</v>
-      </c>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>477</v>
-      </c>
-      <c r="D49" t="s">
-        <v>540</v>
-      </c>
       <c r="M49" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>478</v>
-      </c>
-      <c r="D50" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="M50" t="s">
         <v>207</v>
@@ -7501,18 +7421,12 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>479</v>
-      </c>
-      <c r="D51" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>480</v>
-      </c>
-      <c r="D52" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7520,10 +7434,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>481</v>
-      </c>
-      <c r="D53" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="M53" t="s">
         <v>209</v>
@@ -7531,21 +7442,15 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>482</v>
-      </c>
-      <c r="D54" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="M54" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>483</v>
-      </c>
-      <c r="D55" t="s">
-        <v>558</v>
+      <c r="A55">
+        <v>9512861203</v>
       </c>
       <c r="M55" t="s">
         <v>211</v>
@@ -7553,10 +7458,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>484</v>
-      </c>
-      <c r="D56" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="M56" t="s">
         <v>212</v>
@@ -7564,48 +7466,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
-      </c>
-      <c r="D57" t="s">
-        <v>560</v>
+        <v>352</v>
       </c>
       <c r="M57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>561</v>
-      </c>
-    </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>486</v>
-      </c>
-      <c r="D59" t="s">
-        <v>562</v>
-      </c>
       <c r="M59" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>563</v>
-      </c>
       <c r="M60" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>487</v>
-      </c>
-      <c r="D61" t="s">
-        <v>564</v>
+        <v>470</v>
       </c>
       <c r="M61" t="s">
         <v>205</v>
@@ -7613,10 +7495,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>488</v>
-      </c>
-      <c r="D62" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s">
         <v>206</v>
@@ -7624,13 +7503,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
-      </c>
-      <c r="D63" t="s">
-        <v>566</v>
+        <v>361</v>
       </c>
       <c r="M63" t="s">
         <v>207</v>
@@ -7638,10 +7514,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>490</v>
-      </c>
-      <c r="D64" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
       <c r="M64" t="s">
         <v>208</v>
@@ -7649,10 +7522,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>383</v>
-      </c>
-      <c r="D65" t="s">
-        <v>568</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s">
         <v>209</v>
@@ -7660,10 +7530,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>491</v>
-      </c>
-      <c r="D66" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="M66" t="s">
         <v>210</v>
@@ -7671,7 +7538,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s">
         <v>211</v>
@@ -7684,7 +7551,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s">
         <v>213</v>
@@ -7692,7 +7559,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="M70" t="s">
         <v>214</v>
@@ -7705,7 +7572,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>503</v>
       </c>
       <c r="M72" t="s">
         <v>225</v>
@@ -7713,45 +7580,48 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>504</v>
       </c>
       <c r="M73" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>505</v>
+      </c>
       <c r="M74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.25">
@@ -7761,17 +7631,17 @@
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="13:13" x14ac:dyDescent="0.25">
@@ -7781,137 +7651,137 @@
     </row>
     <row r="87" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M88" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M89" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M90" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M91" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M92" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M93" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M94" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M95" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M96" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M97" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M98" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M99" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M101" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M105" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M107" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="13:13" x14ac:dyDescent="0.25">
@@ -7921,217 +7791,520 @@
     </row>
     <row r="115" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M125" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M126" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M127" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M128" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M129" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M130" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M131" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M132" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M133" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M134" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M135" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M136" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M137" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M138" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M140" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M141" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M142" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M143" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M144" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M145" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>241</v>
+      </c>
+      <c r="N147" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>224</v>
+      </c>
+      <c r="N148" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="149" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>224</v>
+      </c>
+      <c r="N149" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>224</v>
+      </c>
+      <c r="N150" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="151" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>224</v>
+      </c>
+      <c r="N151" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="152" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>224</v>
+      </c>
+      <c r="N152" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>241</v>
+      </c>
+      <c r="N153" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="154" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>241</v>
+      </c>
+      <c r="N154" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="155" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>241</v>
+      </c>
+      <c r="N155" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="156" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>224</v>
+      </c>
+      <c r="N156" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="157" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>224</v>
+      </c>
+      <c r="N157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="158" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>224</v>
+      </c>
+      <c r="N158" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="159" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>241</v>
+      </c>
+      <c r="N159" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="160" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>224</v>
+      </c>
+      <c r="N160" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>224</v>
+      </c>
+      <c r="N161" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>224</v>
+      </c>
+      <c r="N162" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>224</v>
+      </c>
+      <c r="N163" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>241</v>
+      </c>
+      <c r="N164" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="165" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>241</v>
+      </c>
+      <c r="N165" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="166" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>241</v>
+      </c>
+      <c r="N166" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>241</v>
+      </c>
+      <c r="N167" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>287</v>
+      </c>
+      <c r="N168" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M169" t="s">
+        <v>421</v>
+      </c>
+      <c r="N169" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>425</v>
+      </c>
+      <c r="N170" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M171" t="s">
+        <v>224</v>
+      </c>
+      <c r="N171" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>224</v>
+      </c>
+      <c r="N172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>224</v>
+      </c>
+      <c r="N173" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="174" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>224</v>
+      </c>
+      <c r="N174" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="175" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N175" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="176" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>224</v>
+      </c>
+      <c r="N176" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>224</v>
+      </c>
+      <c r="N177" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>559</v>
+      </c>
+      <c r="P182" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>542</v>
+      </c>
+      <c r="P184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="M186" t="s">
+        <v>343</v>
+      </c>
+      <c r="O186" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +8333,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,7 +8342,7 @@
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
@@ -8190,21 +8363,21 @@
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="D8" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,7 +8385,7 @@
         <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,7 +8394,7 @@
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,7 +8403,7 @@
         <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8239,7 +8412,7 @@
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,7 +8421,7 @@
         <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,7 +8430,7 @@
         <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,7 +8439,7 @@
         <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,7 +8447,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
       <c r="D17" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8289,7 +8462,7 @@
         <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8298,7 +8471,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8307,7 +8480,7 @@
         <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8316,7 +8489,7 @@
         <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8325,7 +8498,7 @@
         <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8337,31 +8510,31 @@
         <v>181</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="D27" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="D28" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,55 +8543,55 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="D33" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="D38" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="D39" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,50 +8600,50 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="D43" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="D44" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="D45" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="D46" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
       <c r="D47" s="30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="D48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,7 +8657,7 @@
         <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8493,7 +8666,7 @@
         <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,7 +8675,7 @@
         <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,7 +8684,7 @@
         <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,56 +8696,56 @@
         <v>193</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="D56" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="D60" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="D62" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -8583,13 +8756,13 @@
         <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="D65" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -8600,19 +8773,19 @@
         <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="30"/>
       <c r="D68" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="30"/>
       <c r="D69" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -8623,13 +8796,13 @@
         <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="30"/>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -8640,13 +8813,13 @@
         <v>188</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="30"/>
       <c r="D75" s="30" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -8662,31 +8835,31 @@
         <v>187</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="30"/>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="D80" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="30"/>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="31"/>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -8698,7 +8871,7 @@
       </c>
       <c r="C84" s="23"/>
       <c r="D84" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -8756,42 +8929,42 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="I139" s="26" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="527" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD800CFC-35EC-4195-9ED1-7351FA309E50}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C8A696-51E2-4EEB-9940-007ED93040EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="603">
   <si>
     <t>Sprint</t>
   </si>
@@ -1757,6 +1757,102 @@
   </si>
   <si>
     <t>desabilitar boton imprimir</t>
+  </si>
+  <si>
+    <t>MIN 1</t>
+  </si>
+  <si>
+    <t>EXISTENCIA Y PRECIO MARCO NEGATIVO SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>MINIMO STOCK NEGATIVO INFO PRODUCTO</t>
+  </si>
+  <si>
+    <t>CAMBIAR PRECIO SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>CANT SUBPRODUCTOS NO ACTUALIZA : arriba</t>
+  </si>
+  <si>
+    <t>no actualiz cabecera al actualizar existencia de subproducto</t>
+  </si>
+  <si>
+    <t>CAMBIAR ICONO CANCELAR A UN CON GUION</t>
+  </si>
+  <si>
+    <t>CONFIRMACION CLENTE ELIMINAR MANDA MINUSCULAS</t>
+  </si>
+  <si>
+    <t>MEJORAR BUSCADOR EN COMPRA Y VENTA</t>
+  </si>
+  <si>
+    <t>HACER MAS GRANDE CANTIDAD DE VENTA</t>
+  </si>
+  <si>
+    <t>checar contador de entradas  reporte inventario</t>
+  </si>
+  <si>
+    <t>boton cancelar en edit info producto</t>
+  </si>
+  <si>
+    <t>DEJARLO ASI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar por tió </t>
+  </si>
+  <si>
+    <t>EN INVENTARIO RAPIDO : SE REPITEN DOS NOMBRES</t>
+  </si>
+  <si>
+    <t>UNO NO ES UNA CANTIDAD VALIDA</t>
+  </si>
+  <si>
+    <t>NO REFRESCAR CUANDO AGREGAMOS DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>NO SE ACTUALIZO LA CANTIDAD DEL PRODUCTO CORREGIDO EN INVENTARIO RAPIDO</t>
+  </si>
+  <si>
+    <t>TOTAL VE LA VENTA EN CONSULTAR VENTA EN DEVOLUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECAR </t>
+  </si>
+  <si>
+    <t>ERROR: VENTA NO PERMITIDA PARA DEVOLUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVER MODAL BUSCAR VENTA DE DEVOLUCION A </t>
+  </si>
+  <si>
+    <t>AGREGAR CODIGO DE BARRAS EN LISTA DEUDOR VERMAS</t>
+  </si>
+  <si>
+    <t>QUE NO SE RECARGUE LA VISTA EN LISTA DEUDOR</t>
+  </si>
+  <si>
+    <t>LAS VENTAS A CREDITO UNA VEZ LIQUIDADAS SE PUEDEN DEVOLVER?</t>
+  </si>
+  <si>
+    <t>PAGO A PROVEEDORES NO APARECE</t>
+  </si>
+  <si>
+    <t>IMPRIMIR CORTE DE CAJA DIRECTO</t>
+  </si>
+  <si>
+    <t>TEXT AREA EN DIRECCION SUCURSAL</t>
+  </si>
+  <si>
+    <t>SOLO VER SUCURSAL A LA QUE SE LE DIO PERMISO CUANDO SE LE DA ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIAR ARCHIVOS EN EL CORREO DE </t>
+  </si>
+  <si>
+    <t>en buscar venta registrar en la col pago que se lleva pagando en esa venta a creditoporque solo mantiene 0 hasta liquidar marca completo en esa col</t>
   </si>
 </sst>
 </file>
@@ -6934,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7324,89 +7420,172 @@
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>571</v>
+      </c>
       <c r="M32" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
+        <v>572</v>
+      </c>
       <c r="M33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>573</v>
+      </c>
+      <c r="F34" t="s">
+        <v>576</v>
+      </c>
       <c r="M34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>577</v>
+      </c>
+      <c r="F35" t="s">
+        <v>575</v>
+      </c>
       <c r="M35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
       <c r="M36" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F37" t="s">
+        <v>574</v>
+      </c>
       <c r="M37" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>583</v>
+      </c>
+      <c r="C38" t="s">
+        <v>580</v>
+      </c>
       <c r="M38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>584</v>
+      </c>
+      <c r="C39" t="s">
+        <v>582</v>
+      </c>
       <c r="M39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" t="s">
+        <v>579</v>
+      </c>
       <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>585</v>
+      </c>
       <c r="M42" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>513</v>
       </c>
+      <c r="F44" t="s">
+        <v>586</v>
+      </c>
       <c r="M44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>587</v>
+      </c>
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>589</v>
+      </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>590</v>
+      </c>
       <c r="M48" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>591</v>
+      </c>
       <c r="M49" t="s">
         <v>206</v>
       </c>
@@ -7415,6 +7594,9 @@
       <c r="A50" t="s">
         <v>490</v>
       </c>
+      <c r="F50" t="s">
+        <v>592</v>
+      </c>
       <c r="M50" t="s">
         <v>207</v>
       </c>
@@ -7423,11 +7605,17 @@
       <c r="A51" t="s">
         <v>491</v>
       </c>
+      <c r="F51" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>492</v>
       </c>
+      <c r="F52" t="s">
+        <v>594</v>
+      </c>
       <c r="M52" t="s">
         <v>208</v>
       </c>
@@ -7436,6 +7624,12 @@
       <c r="A53" t="s">
         <v>493</v>
       </c>
+      <c r="E53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" t="s">
+        <v>595</v>
+      </c>
       <c r="M53" t="s">
         <v>209</v>
       </c>
@@ -7444,6 +7638,9 @@
       <c r="A54" t="s">
         <v>494</v>
       </c>
+      <c r="F54" t="s">
+        <v>596</v>
+      </c>
       <c r="M54" t="s">
         <v>210</v>
       </c>
@@ -7452,6 +7649,12 @@
       <c r="A55">
         <v>9512861203</v>
       </c>
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" t="s">
+        <v>597</v>
+      </c>
       <c r="M55" t="s">
         <v>211</v>
       </c>
@@ -7460,6 +7663,9 @@
       <c r="A56" t="s">
         <v>495</v>
       </c>
+      <c r="F56" t="s">
+        <v>598</v>
+      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -7471,16 +7677,33 @@
       <c r="B57" t="s">
         <v>352</v>
       </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" t="s">
+        <v>599</v>
+      </c>
       <c r="M57" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>600</v>
+      </c>
+    </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>601</v>
+      </c>
       <c r="M59" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>602</v>
+      </c>
       <c r="M60" t="s">
         <v>204</v>
       </c>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C8A696-51E2-4EEB-9940-007ED93040EE}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC166B56-EC77-48BE-A26C-35C9BA16CA94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="619">
   <si>
     <t>Sprint</t>
   </si>
@@ -1853,6 +1853,54 @@
   </si>
   <si>
     <t>en buscar venta registrar en la col pago que se lleva pagando en esa venta a creditoporque solo mantiene 0 hasta liquidar marca completo en esa col</t>
+  </si>
+  <si>
+    <t>validar cuando no hay clientes</t>
+  </si>
+  <si>
+    <t>verificar si en buscar productos no busca los subproductos</t>
+  </si>
+  <si>
+    <t>clientes numero negativo en telefono</t>
+  </si>
+  <si>
+    <t>$users = DB::table('users')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -&gt;join('contacts', 'users.id', '=', 'contacts.user_id')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -&gt;join('orders', 'users.id', '=', 'orders.user_id')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -&gt;select('users.*', 'contacts.phone', 'orders.price')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -&gt;get();</t>
+  </si>
+  <si>
+    <t>DB::table('users')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;join('contacts', function ($join) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $join-&gt;on('users.id', '=', 'contacts.user_id')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 -&gt;where('contacts.user_id', '&gt;', 5);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar mensaje y </t>
+  </si>
+  <si>
+    <t>OPTIMIZAR CODIGO BUSCAR VENTA EN DEVOLUCION</t>
   </si>
 </sst>
 </file>
@@ -7030,7 +7078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -7105,9 +7153,6 @@
       <c r="D5" t="s">
         <v>434</v>
       </c>
-      <c r="F5" t="s">
-        <v>406</v>
-      </c>
       <c r="M5" t="s">
         <v>226</v>
       </c>
@@ -7122,9 +7167,6 @@
       <c r="D6" t="s">
         <v>420</v>
       </c>
-      <c r="F6" t="s">
-        <v>422</v>
-      </c>
       <c r="M6" t="s">
         <v>227</v>
       </c>
@@ -7139,9 +7181,6 @@
       <c r="D7" t="s">
         <v>442</v>
       </c>
-      <c r="F7" t="s">
-        <v>400</v>
-      </c>
       <c r="M7" t="s">
         <v>235</v>
       </c>
@@ -7153,9 +7192,6 @@
       <c r="D8" t="s">
         <v>414</v>
       </c>
-      <c r="F8" t="s">
-        <v>308</v>
-      </c>
       <c r="M8" t="s">
         <v>231</v>
       </c>
@@ -7178,9 +7214,6 @@
       <c r="D10" t="s">
         <v>565</v>
       </c>
-      <c r="F10" t="s">
-        <v>294</v>
-      </c>
       <c r="M10" t="s">
         <v>236</v>
       </c>
@@ -7245,9 +7278,6 @@
       <c r="E15" t="s">
         <v>469</v>
       </c>
-      <c r="F15" t="s">
-        <v>298</v>
-      </c>
       <c r="M15" t="s">
         <v>233</v>
       </c>
@@ -7262,9 +7292,6 @@
       <c r="E16" t="s">
         <v>461</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
       <c r="M16" t="s">
         <v>234</v>
       </c>
@@ -7369,9 +7396,6 @@
       <c r="E26" t="s">
         <v>487</v>
       </c>
-      <c r="F26" t="s">
-        <v>569</v>
-      </c>
       <c r="M26" t="s">
         <v>260</v>
       </c>
@@ -7380,9 +7404,6 @@
       <c r="E27" t="s">
         <v>488</v>
       </c>
-      <c r="F27" t="s">
-        <v>570</v>
-      </c>
       <c r="M27" t="s">
         <v>245</v>
       </c>
@@ -7445,9 +7466,6 @@
       <c r="C34" t="s">
         <v>573</v>
       </c>
-      <c r="F34" t="s">
-        <v>576</v>
-      </c>
       <c r="M34" t="s">
         <v>265</v>
       </c>
@@ -7459,9 +7477,6 @@
       <c r="C35" t="s">
         <v>577</v>
       </c>
-      <c r="F35" t="s">
-        <v>575</v>
-      </c>
       <c r="M35" t="s">
         <v>281</v>
       </c>
@@ -7484,9 +7499,6 @@
       <c r="C37" t="s">
         <v>581</v>
       </c>
-      <c r="F37" t="s">
-        <v>574</v>
-      </c>
       <c r="M37" t="s">
         <v>266</v>
       </c>
@@ -7514,17 +7526,14 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" t="s">
-        <v>579</v>
-      </c>
       <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>513</v>
+      </c>
       <c r="M41" t="s">
         <v>289</v>
       </c>
@@ -7543,11 +7552,11 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>513</v>
+      <c r="E44" t="s">
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>586</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s">
         <v>202</v>
@@ -7555,7 +7564,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>587</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s">
         <v>203</v>
@@ -7563,20 +7572,23 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>588</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
       <c r="F48" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="M48" t="s">
         <v>205</v>
@@ -7595,7 +7607,7 @@
         <v>490</v>
       </c>
       <c r="F50" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="M50" t="s">
         <v>207</v>
@@ -7614,7 +7626,7 @@
         <v>492</v>
       </c>
       <c r="F52" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7624,11 +7636,8 @@
       <c r="A53" t="s">
         <v>493</v>
       </c>
-      <c r="E53" t="s">
-        <v>224</v>
-      </c>
       <c r="F53" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M53" t="s">
         <v>209</v>
@@ -7639,7 +7648,7 @@
         <v>494</v>
       </c>
       <c r="F54" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="M54" t="s">
         <v>210</v>
@@ -7649,11 +7658,8 @@
       <c r="A55">
         <v>9512861203</v>
       </c>
-      <c r="E55" t="s">
-        <v>224</v>
-      </c>
       <c r="F55" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M55" t="s">
         <v>211</v>
@@ -7663,9 +7669,6 @@
       <c r="A56" t="s">
         <v>495</v>
       </c>
-      <c r="F56" t="s">
-        <v>598</v>
-      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -7677,24 +7680,18 @@
       <c r="B57" t="s">
         <v>352</v>
       </c>
-      <c r="E57" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" t="s">
-        <v>599</v>
-      </c>
       <c r="M57" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>600</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>601</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s">
         <v>214</v>
@@ -7702,7 +7699,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>602</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s">
         <v>204</v>
@@ -7712,6 +7709,9 @@
       <c r="A61" t="s">
         <v>470</v>
       </c>
+      <c r="F61" t="s">
+        <v>308</v>
+      </c>
       <c r="M61" t="s">
         <v>205</v>
       </c>
@@ -7720,6 +7720,12 @@
       <c r="A62" t="s">
         <v>471</v>
       </c>
+      <c r="E62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" t="s">
+        <v>595</v>
+      </c>
       <c r="M62" t="s">
         <v>206</v>
       </c>
@@ -7731,6 +7737,9 @@
       <c r="B63" t="s">
         <v>361</v>
       </c>
+      <c r="F63" t="s">
+        <v>605</v>
+      </c>
       <c r="M63" t="s">
         <v>207</v>
       </c>
@@ -7739,6 +7748,12 @@
       <c r="A64" t="s">
         <v>473</v>
       </c>
+      <c r="D64" t="s">
+        <v>606</v>
+      </c>
+      <c r="F64" t="s">
+        <v>617</v>
+      </c>
       <c r="M64" t="s">
         <v>208</v>
       </c>
@@ -7747,6 +7762,12 @@
       <c r="A65" t="s">
         <v>373</v>
       </c>
+      <c r="D65" t="s">
+        <v>607</v>
+      </c>
+      <c r="F65" t="s">
+        <v>618</v>
+      </c>
       <c r="M65" t="s">
         <v>209</v>
       </c>
@@ -7755,6 +7776,9 @@
       <c r="A66" t="s">
         <v>474</v>
       </c>
+      <c r="D66" t="s">
+        <v>608</v>
+      </c>
       <c r="M66" t="s">
         <v>210</v>
       </c>
@@ -7763,11 +7787,17 @@
       <c r="A67" t="s">
         <v>331</v>
       </c>
+      <c r="D67" t="s">
+        <v>609</v>
+      </c>
       <c r="M67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>610</v>
+      </c>
       <c r="M68" t="s">
         <v>212</v>
       </c>
@@ -7789,6 +7819,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>611</v>
+      </c>
       <c r="M71" t="s">
         <v>221</v>
       </c>
@@ -7797,6 +7830,9 @@
       <c r="A72" t="s">
         <v>503</v>
       </c>
+      <c r="D72" t="s">
+        <v>612</v>
+      </c>
       <c r="M72" t="s">
         <v>225</v>
       </c>
@@ -7805,6 +7841,9 @@
       <c r="A73" t="s">
         <v>504</v>
       </c>
+      <c r="D73" t="s">
+        <v>613</v>
+      </c>
       <c r="M73" t="s">
         <v>226</v>
       </c>
@@ -7813,16 +7852,25 @@
       <c r="A74" t="s">
         <v>505</v>
       </c>
+      <c r="D74" t="s">
+        <v>614</v>
+      </c>
       <c r="M74" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>615</v>
+      </c>
       <c r="M75" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>616</v>
+      </c>
       <c r="M76" t="s">
         <v>255</v>
       </c>
@@ -7837,87 +7885,179 @@
         <v>251</v>
       </c>
     </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>241</v>
+      </c>
+      <c r="F79" t="s">
+        <v>589</v>
+      </c>
+    </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" t="s">
+        <v>590</v>
+      </c>
       <c r="M80" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" t="s">
+        <v>603</v>
+      </c>
       <c r="M81" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" t="s">
+        <v>588</v>
+      </c>
       <c r="M82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" t="s">
+        <v>599</v>
+      </c>
       <c r="M83" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" t="s">
+        <v>597</v>
+      </c>
       <c r="M84" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>224</v>
+      </c>
+      <c r="F85" t="s">
+        <v>592</v>
+      </c>
       <c r="M85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" t="s">
+        <v>587</v>
+      </c>
       <c r="M86" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" t="s">
+        <v>586</v>
+      </c>
       <c r="M87" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88" t="s">
+        <v>576</v>
+      </c>
       <c r="M88" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89" t="s">
+        <v>575</v>
+      </c>
       <c r="M89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90" t="s">
+        <v>579</v>
+      </c>
       <c r="M90" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" t="s">
+        <v>604</v>
+      </c>
       <c r="M91" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" t="s">
+        <v>594</v>
+      </c>
       <c r="M92" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>600</v>
+      </c>
       <c r="M93" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M94" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M95" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M96" t="s">
         <v>273</v>
       </c>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC166B56-EC77-48BE-A26C-35C9BA16CA94}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E0722D-52E9-43E8-A48B-95742F60A38C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="633">
   <si>
     <t>Sprint</t>
   </si>
@@ -1801,9 +1801,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">agregar por tió </t>
-  </si>
-  <si>
     <t>EN INVENTARIO RAPIDO : SE REPITEN DOS NOMBRES</t>
   </si>
   <si>
@@ -1901,13 +1898,58 @@
   </si>
   <si>
     <t>OPTIMIZAR CODIGO BUSCAR VENTA EN DEVOLUCION</t>
+  </si>
+  <si>
+    <t>TEL 8-10 DIGITOS</t>
+  </si>
+  <si>
+    <t>placeholder="TEL 8-10 DIGITOS"</t>
+  </si>
+  <si>
+    <t>pattern="[0-9]{8,10}"</t>
+  </si>
+  <si>
+    <t>RECUPERAR DATOS HISTORIAL VENTAS PARA IMPRIMIRLO EN COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>actualizar el punto de venta en el hosting</t>
+  </si>
+  <si>
+    <t>REPORTE INVENTARIO NO FUNCIONA</t>
+  </si>
+  <si>
+    <t>NO CARGA DEVOLUCION EN CORTE CAJA</t>
+  </si>
+  <si>
+    <t>CORTE CAJA FALLA</t>
+  </si>
+  <si>
+    <t>TERMINAR COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>checar que a todas las rutas se les restrinja acceso con logeo</t>
+  </si>
+  <si>
+    <t>TAREAS ECOMMERCE</t>
+  </si>
+  <si>
+    <t>TERMINAR DISEÑO COMPROBANTE</t>
+  </si>
+  <si>
+    <t>FUNCIONALIDAD HISTORIAL PEDIDOS</t>
+  </si>
+  <si>
+    <t>FUNCIONALIDAD SEGUIMIENTO PEDIDO</t>
+  </si>
+  <si>
+    <t>CHECAR PAGOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1995,6 +2037,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2098,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2144,6 +2194,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7076,10 +7127,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7136,6 +7187,9 @@
       <c r="D4" t="s">
         <v>441</v>
       </c>
+      <c r="F4" t="s">
+        <v>568</v>
+      </c>
       <c r="M4" t="s">
         <v>225</v>
       </c>
@@ -7153,6 +7207,9 @@
       <c r="D5" t="s">
         <v>434</v>
       </c>
+      <c r="F5" t="s">
+        <v>500</v>
+      </c>
       <c r="M5" t="s">
         <v>226</v>
       </c>
@@ -7167,6 +7224,9 @@
       <c r="D6" t="s">
         <v>420</v>
       </c>
+      <c r="F6" t="s">
+        <v>567</v>
+      </c>
       <c r="M6" t="s">
         <v>227</v>
       </c>
@@ -7181,6 +7241,9 @@
       <c r="D7" t="s">
         <v>442</v>
       </c>
+      <c r="F7" t="s">
+        <v>319</v>
+      </c>
       <c r="M7" t="s">
         <v>235</v>
       </c>
@@ -7192,6 +7255,9 @@
       <c r="D8" t="s">
         <v>414</v>
       </c>
+      <c r="F8" t="s">
+        <v>320</v>
+      </c>
       <c r="M8" t="s">
         <v>231</v>
       </c>
@@ -7203,6 +7269,9 @@
       <c r="D9" t="s">
         <v>520</v>
       </c>
+      <c r="F9" t="s">
+        <v>321</v>
+      </c>
       <c r="M9" t="s">
         <v>222</v>
       </c>
@@ -7214,6 +7283,9 @@
       <c r="D10" t="s">
         <v>565</v>
       </c>
+      <c r="F10" t="s">
+        <v>423</v>
+      </c>
       <c r="M10" t="s">
         <v>236</v>
       </c>
@@ -7222,6 +7294,9 @@
       <c r="D11" t="s">
         <v>549</v>
       </c>
+      <c r="F11" t="s">
+        <v>498</v>
+      </c>
       <c r="M11" t="s">
         <v>228</v>
       </c>
@@ -7247,9 +7322,6 @@
       <c r="E13" t="s">
         <v>467</v>
       </c>
-      <c r="F13" t="s">
-        <v>568</v>
-      </c>
       <c r="M13" t="s">
         <v>230</v>
       </c>
@@ -7264,9 +7336,6 @@
       <c r="E14" t="s">
         <v>468</v>
       </c>
-      <c r="F14" t="s">
-        <v>500</v>
-      </c>
       <c r="M14" t="s">
         <v>232</v>
       </c>
@@ -7322,9 +7391,6 @@
       <c r="E19" t="s">
         <v>464</v>
       </c>
-      <c r="F19" t="s">
-        <v>567</v>
-      </c>
       <c r="M19" t="s">
         <v>413</v>
       </c>
@@ -7333,9 +7399,6 @@
       <c r="E20" t="s">
         <v>465</v>
       </c>
-      <c r="F20" t="s">
-        <v>319</v>
-      </c>
       <c r="M20" t="s">
         <v>415</v>
       </c>
@@ -7344,9 +7407,6 @@
       <c r="E21" t="s">
         <v>466</v>
       </c>
-      <c r="F21" t="s">
-        <v>320</v>
-      </c>
       <c r="M21" t="s">
         <v>416</v>
       </c>
@@ -7355,9 +7415,6 @@
       <c r="E22" t="s">
         <v>424</v>
       </c>
-      <c r="F22" t="s">
-        <v>321</v>
-      </c>
       <c r="M22" t="s">
         <v>417</v>
       </c>
@@ -7366,9 +7423,6 @@
       <c r="E23" t="s">
         <v>427</v>
       </c>
-      <c r="F23" t="s">
-        <v>423</v>
-      </c>
       <c r="M23" t="s">
         <v>418</v>
       </c>
@@ -7377,9 +7431,6 @@
       <c r="E24" t="s">
         <v>428</v>
       </c>
-      <c r="F24" t="s">
-        <v>498</v>
-      </c>
       <c r="M24" t="s">
         <v>419</v>
       </c>
@@ -7448,155 +7499,117 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" t="s">
-        <v>572</v>
-      </c>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" t="s">
-        <v>573</v>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>513</v>
       </c>
       <c r="M34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" t="s">
-        <v>577</v>
-      </c>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>578</v>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>300</v>
       </c>
       <c r="M36" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>581</v>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>294</v>
       </c>
       <c r="M37" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>583</v>
-      </c>
-      <c r="C38" t="s">
-        <v>580</v>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>569</v>
       </c>
       <c r="M38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>584</v>
-      </c>
-      <c r="C39" t="s">
-        <v>582</v>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>422</v>
       </c>
       <c r="M39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>590</v>
+      </c>
       <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>513</v>
-      </c>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M42" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>595</v>
+      </c>
       <c r="M43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>224</v>
-      </c>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>298</v>
+        <v>597</v>
       </c>
       <c r="M44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>569</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" t="s">
-        <v>570</v>
-      </c>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>591</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s">
         <v>206</v>
@@ -7607,7 +7620,7 @@
         <v>490</v>
       </c>
       <c r="F50" t="s">
-        <v>574</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s">
         <v>207</v>
@@ -7617,16 +7630,13 @@
       <c r="A51" t="s">
         <v>491</v>
       </c>
-      <c r="F51" t="s">
-        <v>593</v>
-      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>492</v>
       </c>
       <c r="F52" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7637,7 +7647,7 @@
         <v>493</v>
       </c>
       <c r="F53" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="M53" t="s">
         <v>209</v>
@@ -7648,7 +7658,7 @@
         <v>494</v>
       </c>
       <c r="F54" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="M54" t="s">
         <v>210</v>
@@ -7659,7 +7669,7 @@
         <v>9512861203</v>
       </c>
       <c r="F55" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="M55" t="s">
         <v>211</v>
@@ -7669,6 +7679,9 @@
       <c r="A56" t="s">
         <v>495</v>
       </c>
+      <c r="F56" t="s">
+        <v>622</v>
+      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -7686,12 +7699,12 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>406</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>422</v>
+        <v>624</v>
       </c>
       <c r="M59" t="s">
         <v>214</v>
@@ -7699,7 +7712,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="M60" t="s">
         <v>204</v>
@@ -7710,7 +7723,7 @@
         <v>470</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>626</v>
       </c>
       <c r="M61" t="s">
         <v>205</v>
@@ -7720,12 +7733,6 @@
       <c r="A62" t="s">
         <v>471</v>
       </c>
-      <c r="E62" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" t="s">
-        <v>595</v>
-      </c>
       <c r="M62" t="s">
         <v>206</v>
       </c>
@@ -7737,8 +7744,8 @@
       <c r="B63" t="s">
         <v>361</v>
       </c>
-      <c r="F63" t="s">
-        <v>605</v>
+      <c r="F63" s="35" t="s">
+        <v>619</v>
       </c>
       <c r="M63" t="s">
         <v>207</v>
@@ -7748,11 +7755,8 @@
       <c r="A64" t="s">
         <v>473</v>
       </c>
-      <c r="D64" t="s">
-        <v>606</v>
-      </c>
-      <c r="F64" t="s">
-        <v>617</v>
+      <c r="F64" s="35" t="s">
+        <v>620</v>
       </c>
       <c r="M64" t="s">
         <v>208</v>
@@ -7762,10 +7766,7 @@
       <c r="A65" t="s">
         <v>373</v>
       </c>
-      <c r="D65" t="s">
-        <v>607</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="F65" s="35" t="s">
         <v>618</v>
       </c>
       <c r="M65" t="s">
@@ -7776,9 +7777,6 @@
       <c r="A66" t="s">
         <v>474</v>
       </c>
-      <c r="D66" t="s">
-        <v>608</v>
-      </c>
       <c r="M66" t="s">
         <v>210</v>
       </c>
@@ -7787,17 +7785,11 @@
       <c r="A67" t="s">
         <v>331</v>
       </c>
-      <c r="D67" t="s">
-        <v>609</v>
-      </c>
       <c r="M67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>610</v>
-      </c>
       <c r="M68" t="s">
         <v>212</v>
       </c>
@@ -7819,9 +7811,6 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>611</v>
-      </c>
       <c r="M71" t="s">
         <v>221</v>
       </c>
@@ -7830,8 +7819,8 @@
       <c r="A72" t="s">
         <v>503</v>
       </c>
-      <c r="D72" t="s">
-        <v>612</v>
+      <c r="F72" s="35" t="s">
+        <v>628</v>
       </c>
       <c r="M72" t="s">
         <v>225</v>
@@ -7841,9 +7830,6 @@
       <c r="A73" t="s">
         <v>504</v>
       </c>
-      <c r="D73" t="s">
-        <v>613</v>
-      </c>
       <c r="M73" t="s">
         <v>226</v>
       </c>
@@ -7852,212 +7838,158 @@
       <c r="A74" t="s">
         <v>505</v>
       </c>
-      <c r="D74" t="s">
-        <v>614</v>
+      <c r="F74" t="s">
+        <v>629</v>
       </c>
       <c r="M74" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>615</v>
+      <c r="F75" t="s">
+        <v>630</v>
       </c>
       <c r="M75" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>616</v>
+      <c r="A76" t="s">
+        <v>605</v>
+      </c>
+      <c r="F76" t="s">
+        <v>631</v>
       </c>
       <c r="M76" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>606</v>
+      </c>
+      <c r="F77" t="s">
+        <v>632</v>
+      </c>
       <c r="M77" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>607</v>
+      </c>
       <c r="M78" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>241</v>
-      </c>
-      <c r="F79" t="s">
-        <v>589</v>
+      <c r="A79" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80" t="s">
-        <v>590</v>
+      <c r="A80" t="s">
+        <v>609</v>
       </c>
       <c r="M80" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>241</v>
-      </c>
-      <c r="F81" t="s">
-        <v>603</v>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>610</v>
       </c>
       <c r="M81" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82" t="s">
-        <v>588</v>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>611</v>
       </c>
       <c r="M82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83" t="s">
-        <v>599</v>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>612</v>
       </c>
       <c r="M83" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>224</v>
-      </c>
-      <c r="F84" t="s">
-        <v>597</v>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>613</v>
       </c>
       <c r="M84" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>224</v>
-      </c>
-      <c r="F85" t="s">
-        <v>592</v>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>614</v>
       </c>
       <c r="M85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" t="s">
-        <v>587</v>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>615</v>
       </c>
       <c r="M86" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>224</v>
-      </c>
-      <c r="F87" t="s">
-        <v>586</v>
-      </c>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>224</v>
-      </c>
-      <c r="F88" t="s">
-        <v>576</v>
-      </c>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M88" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>224</v>
-      </c>
-      <c r="F89" t="s">
-        <v>575</v>
-      </c>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
-        <v>224</v>
-      </c>
-      <c r="F90" t="s">
-        <v>579</v>
-      </c>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M90" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>224</v>
-      </c>
-      <c r="F91" t="s">
-        <v>604</v>
-      </c>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M91" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>224</v>
-      </c>
-      <c r="F92" t="s">
-        <v>594</v>
-      </c>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>224</v>
-      </c>
-      <c r="F93" t="s">
-        <v>600</v>
-      </c>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M93" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M94" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M95" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M96" t="s">
         <v>273</v>
       </c>
@@ -8614,60 +8546,260 @@
       <c r="B187" t="s">
         <v>271</v>
       </c>
+      <c r="M187" t="s">
+        <v>241</v>
+      </c>
+      <c r="N187" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>291</v>
       </c>
+      <c r="M188" t="s">
+        <v>224</v>
+      </c>
+      <c r="N188" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>292</v>
       </c>
+      <c r="M189" t="s">
+        <v>241</v>
+      </c>
+      <c r="N189" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>293</v>
       </c>
+      <c r="M190" t="s">
+        <v>224</v>
+      </c>
+      <c r="N190" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>224</v>
+      </c>
+      <c r="N191" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>224</v>
+      </c>
+      <c r="N192" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>224</v>
+      </c>
+      <c r="N193" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>241</v>
+      </c>
+      <c r="N194" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>224</v>
+      </c>
+      <c r="N195" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>224</v>
+      </c>
+      <c r="N196" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>224</v>
+      </c>
+      <c r="N197" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>224</v>
+      </c>
+      <c r="N198" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>224</v>
+      </c>
+      <c r="N199" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>224</v>
+      </c>
+      <c r="N200" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>437</v>
+      </c>
+      <c r="M201" t="s">
+        <v>224</v>
+      </c>
+      <c r="N201" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>224</v>
+      </c>
+      <c r="N202" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>241</v>
+      </c>
+      <c r="N203" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>241</v>
+      </c>
+      <c r="N204" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>224</v>
+      </c>
+      <c r="N205" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>224</v>
+      </c>
+      <c r="N206" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>224</v>
+      </c>
+      <c r="N207" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>224</v>
+      </c>
+      <c r="N208" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="209" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>224</v>
+      </c>
+      <c r="N209" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="210" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>224</v>
+      </c>
+      <c r="N210" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="211" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>241</v>
+      </c>
+      <c r="N211" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="212" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>224</v>
+      </c>
+      <c r="N212" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="213" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>583</v>
+      </c>
+      <c r="N213" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="214" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>584</v>
+      </c>
+      <c r="N214" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E0722D-52E9-43E8-A48B-95742F60A38C}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6C3093-F277-4FD7-90F3-E38662F23014}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="669">
   <si>
     <t>Sprint</t>
   </si>
@@ -1317,9 +1317,6 @@
     <t xml:space="preserve">revisar notifcaciones de productos bajos y proximos a caducar </t>
   </si>
   <si>
-    <t xml:space="preserve">pagos con paypal </t>
-  </si>
-  <si>
     <t>checar modos de pago para farmacias gi ecommerce</t>
   </si>
   <si>
@@ -1327,9 +1324,6 @@
   </si>
   <si>
     <t>historial de pedidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seguimiento del pedido actual </t>
   </si>
   <si>
     <t>CHECAR BIEN EL BUSCADOR DE PRODUCTO</t>
@@ -1429,33 +1423,12 @@
     <t>CORTE</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIOS DE PAGO </t>
-  </si>
-  <si>
-    <t>QUE DEPARTAMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODAS LAS SUCURSALES. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cotizaciones. </t>
   </si>
   <si>
     <t>Resumen</t>
   </si>
   <si>
-    <t>contraentrega</t>
-  </si>
-  <si>
     <t>INTRODUCCION</t>
   </si>
   <si>
@@ -1501,15 +1474,9 @@
     <t>complementar manual de usuario</t>
   </si>
   <si>
-    <t>darle responsibidad a vistas del ecomerce</t>
-  </si>
-  <si>
     <t>vistas de seguimiento de pedido</t>
   </si>
   <si>
-    <t>terminar pagos contraentrega</t>
-  </si>
-  <si>
     <t>pagos paypal</t>
   </si>
   <si>
@@ -1729,9 +1696,6 @@
     <t>ERRORES CORREGIDOS</t>
   </si>
   <si>
-    <t>HACER</t>
-  </si>
-  <si>
     <t>HACER NO RELEVANTES</t>
   </si>
   <si>
@@ -1750,18 +1714,12 @@
     <t>1)</t>
   </si>
   <si>
-    <t>2)</t>
-  </si>
-  <si>
     <t>checar reporte inv: cant antes, cant. Despues</t>
   </si>
   <si>
     <t>desabilitar boton imprimir</t>
   </si>
   <si>
-    <t>MIN 1</t>
-  </si>
-  <si>
     <t>EXISTENCIA Y PRECIO MARCO NEGATIVO SUBPRODUCTO</t>
   </si>
   <si>
@@ -1943,6 +1901,156 @@
   </si>
   <si>
     <t>CHECAR PAGOS</t>
+  </si>
+  <si>
+    <t>imprimir ticket</t>
+  </si>
+  <si>
+    <t>imprimir 3 col nombre, cant, subtotal</t>
+  </si>
+  <si>
+    <t>imprimir cabbecera</t>
+  </si>
+  <si>
+    <t>imprimir productos</t>
+  </si>
+  <si>
+    <t>imprimir header</t>
+  </si>
+  <si>
+    <t>cargar imágenes en icommerce y poner precios</t>
+  </si>
+  <si>
+    <t>agregar cajero y folio AL TICKET</t>
+  </si>
+  <si>
+    <t>boton regresar</t>
+  </si>
+  <si>
+    <t>manda un error al iniciar sesion en punto vwnta</t>
+  </si>
+  <si>
+    <t>crear elementos en modulos que se crean por default PUNTO VENTA</t>
+  </si>
+  <si>
+    <t>cambiar tiempo enque se carga el ticket</t>
+  </si>
+  <si>
+    <t>subproducto: observacion opcional crear subproducto</t>
+  </si>
+  <si>
+    <t>Ahora manda null en ver subproducto observacion</t>
+  </si>
+  <si>
+    <t>error habilitado campos de empleado</t>
+  </si>
+  <si>
+    <t>costo 4 digitos subproducto</t>
+  </si>
+  <si>
+    <t>alta de productos en minuscula</t>
+  </si>
+  <si>
+    <t>En venta carga cliente de ecomemrce</t>
+  </si>
+  <si>
+    <t>validar registro cliente en el ecommerce</t>
+  </si>
+  <si>
+    <t>trabajar con responsibidad del ecommerce</t>
+  </si>
+  <si>
+    <t>terminar las ventas del ecommerce</t>
+  </si>
+  <si>
+    <t>terminar los pagos</t>
+  </si>
+  <si>
+    <t>terminar seguimiento de pedidos</t>
+  </si>
+  <si>
+    <t>Quitar boton de pagar en direccion de envio</t>
+  </si>
+  <si>
+    <t>agregar forma de pago contra entrega</t>
+  </si>
+  <si>
+    <t>checar las preguntas a hacerle a la doctora Leicy</t>
+  </si>
+  <si>
+    <t>en alta de productos carga id Departamento</t>
+  </si>
+  <si>
+    <t>Al registrarse el cliente pedirle su direccion y su numero de cuenta</t>
+  </si>
+  <si>
+    <t>Preguntarle al cliente con cuanto va a pagar al entregar</t>
+  </si>
+  <si>
+    <t>quitar productos de carrito proincipal</t>
+  </si>
+  <si>
+    <t>precio mando muchos decimales SUBPRODUCto</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>no funciona buscador de agregar de stock</t>
+  </si>
+  <si>
+    <t>cambiar color del boton cerrar del modal info producto inventario</t>
+  </si>
+  <si>
+    <t>Hacer mas chico y en dos filas info producto mas largo del anchoy reducir largo</t>
+  </si>
+  <si>
+    <t>editar existencias, precio y costo en la misma tabla donde se listan productos</t>
+  </si>
+  <si>
+    <t>eliminar imagen info producto</t>
+  </si>
+  <si>
+    <t>checar documentacion a firmar asesora externa</t>
+  </si>
+  <si>
+    <t>checar responsibidad de carrito</t>
+  </si>
+  <si>
+    <t>mantener logueado al cliente cuando se registra</t>
+  </si>
+  <si>
+    <t>checar api colonias</t>
+  </si>
+  <si>
+    <t>terminar resumen de compra</t>
+  </si>
+  <si>
+    <t>CHECAR LEICY</t>
+  </si>
+  <si>
+    <t>envios gratis</t>
+  </si>
+  <si>
+    <t>agregar boton contraentrega</t>
+  </si>
+  <si>
+    <t>tiempo de entrega estimado paquetes solicitados</t>
+  </si>
+  <si>
+    <t>anuncios</t>
+  </si>
+  <si>
+    <t>envios gratis a partir de $</t>
+  </si>
+  <si>
+    <t>Envios a partir de $50</t>
+  </si>
+  <si>
+    <t>para generar confianza en nuestros clientes contamos con pagos contra entrega</t>
+  </si>
+  <si>
+    <t>solo envios a zimatlan de alvarez</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3503,7 @@
         <v>372</v>
       </c>
       <c r="M10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3461,7 +3569,7 @@
         <v>326</v>
       </c>
       <c r="M16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3472,7 +3580,7 @@
         <v>378</v>
       </c>
       <c r="M17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3483,7 +3591,7 @@
         <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3505,7 +3613,7 @@
         <v>328</v>
       </c>
       <c r="M20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3642,7 +3750,7 @@
         <v>353</v>
       </c>
       <c r="M33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3666,7 +3774,7 @@
         <v>360</v>
       </c>
       <c r="M36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3690,7 +3798,7 @@
         <v>394</v>
       </c>
       <c r="M39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3698,7 +3806,7 @@
         <v>364</v>
       </c>
       <c r="M40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3711,7 +3819,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3781,7 +3889,7 @@
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.25">
@@ -3811,12 +3919,12 @@
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.25">
@@ -3826,22 +3934,22 @@
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="13:13" x14ac:dyDescent="0.25">
@@ -3851,12 +3959,12 @@
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.25">
@@ -7023,7 +7131,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,10 +7235,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:Q214"/>
+  <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="E35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7138,6 +7246,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="35.7109375" customWidth="1"/>
@@ -7145,16 +7254,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
+      <c r="F1" t="s">
+        <v>620</v>
+      </c>
       <c r="M1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>550</v>
+      </c>
+      <c r="F2" t="s">
+        <v>621</v>
       </c>
       <c r="M2" t="s">
         <v>224</v>
@@ -7162,13 +7277,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
         <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>622</v>
+      </c>
+      <c r="J3" t="s">
+        <v>649</v>
       </c>
       <c r="M3" t="s">
         <v>221</v>
@@ -7182,13 +7300,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="M4" t="s">
         <v>225</v>
@@ -7202,13 +7320,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>651</v>
       </c>
       <c r="M5" t="s">
         <v>226</v>
@@ -7225,7 +7343,7 @@
         <v>420</v>
       </c>
       <c r="F6" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="M6" t="s">
         <v>227</v>
@@ -7239,10 +7357,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="M7" t="s">
         <v>235</v>
@@ -7256,7 +7374,7 @@
         <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>654</v>
       </c>
       <c r="M8" t="s">
         <v>231</v>
@@ -7267,10 +7385,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>623</v>
       </c>
       <c r="M9" t="s">
         <v>222</v>
@@ -7281,10 +7399,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
-        <v>423</v>
+        <v>625</v>
       </c>
       <c r="M10" t="s">
         <v>236</v>
@@ -7292,10 +7410,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F11" t="s">
-        <v>498</v>
+        <v>631</v>
       </c>
       <c r="M11" t="s">
         <v>228</v>
@@ -7306,10 +7424,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E12" t="s">
-        <v>564</v>
+        <v>529</v>
+      </c>
+      <c r="F12" t="s">
+        <v>502</v>
       </c>
       <c r="M12" t="s">
         <v>229</v>
@@ -7317,10 +7435,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E13" t="s">
-        <v>467</v>
+        <v>526</v>
+      </c>
+      <c r="F13" t="s">
+        <v>583</v>
       </c>
       <c r="M13" t="s">
         <v>230</v>
@@ -7331,10 +7449,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>514</v>
-      </c>
-      <c r="E14" t="s">
-        <v>468</v>
+        <v>503</v>
+      </c>
+      <c r="F14" t="s">
+        <v>586</v>
       </c>
       <c r="M14" t="s">
         <v>232</v>
@@ -7342,10 +7460,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>515</v>
-      </c>
-      <c r="E15" t="s">
-        <v>469</v>
+        <v>504</v>
+      </c>
+      <c r="F15" t="s">
+        <v>294</v>
       </c>
       <c r="M15" t="s">
         <v>233</v>
@@ -7356,10 +7474,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>517</v>
-      </c>
-      <c r="E16" t="s">
-        <v>461</v>
+        <v>506</v>
+      </c>
+      <c r="F16" t="s">
+        <v>556</v>
       </c>
       <c r="M16" t="s">
         <v>234</v>
@@ -7370,143 +7488,152 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>541</v>
-      </c>
-      <c r="E17" t="s">
-        <v>462</v>
+        <v>530</v>
+      </c>
+      <c r="F17" t="s">
+        <v>422</v>
       </c>
       <c r="M17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>463</v>
+      <c r="F18" t="s">
+        <v>648</v>
       </c>
       <c r="M18" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>464</v>
+      <c r="F19" t="s">
+        <v>635</v>
       </c>
       <c r="M19" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>465</v>
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
+        <v>576</v>
       </c>
       <c r="M20" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>466</v>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F21" t="s">
+        <v>612</v>
       </c>
       <c r="M21" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>424</v>
+      <c r="F22" t="s">
+        <v>406</v>
       </c>
       <c r="M22" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>427</v>
+      <c r="F23" t="s">
+        <v>400</v>
       </c>
       <c r="M23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>428</v>
+      <c r="F24" t="s">
+        <v>602</v>
       </c>
       <c r="M24" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>486</v>
+      <c r="F25" t="s">
+        <v>603</v>
       </c>
       <c r="M25" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>487</v>
+      <c r="F26" t="s">
+        <v>613</v>
       </c>
       <c r="M26" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>488</v>
+      <c r="F27" t="s">
+        <v>607</v>
       </c>
       <c r="M27" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>489</v>
-      </c>
-      <c r="F28" s="23"/>
+      <c r="F28" t="s">
+        <v>628</v>
+      </c>
       <c r="M28" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>497</v>
-      </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="35" t="s">
+        <v>614</v>
+      </c>
       <c r="M29" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>485</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="F30" t="s">
+        <v>617</v>
+      </c>
       <c r="M30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>618</v>
+      </c>
       <c r="M31" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="M32" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>626</v>
+      </c>
       <c r="M33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="34" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="M34" t="s">
         <v>265</v>
@@ -7518,16 +7645,13 @@
       </c>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>300</v>
-      </c>
       <c r="M36" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="37" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>294</v>
+      <c r="F37" s="23" t="s">
+        <v>552</v>
       </c>
       <c r="M37" t="s">
         <v>266</v>
@@ -7535,7 +7659,7 @@
     </row>
     <row r="38" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>569</v>
+        <v>459</v>
       </c>
       <c r="M38" t="s">
         <v>286</v>
@@ -7543,7 +7667,7 @@
     </row>
     <row r="39" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="M39" t="s">
         <v>287</v>
@@ -7551,20 +7675,23 @@
     </row>
     <row r="40" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>590</v>
+        <v>477</v>
       </c>
       <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>478</v>
+      </c>
       <c r="M41" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>592</v>
+        <v>426</v>
       </c>
       <c r="M42" t="s">
         <v>280</v>
@@ -7572,7 +7699,7 @@
     </row>
     <row r="43" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>595</v>
+        <v>486</v>
       </c>
       <c r="M43" t="s">
         <v>201</v>
@@ -7580,7 +7707,7 @@
     </row>
     <row r="44" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="M44" t="s">
         <v>202</v>
@@ -7588,39 +7715,47 @@
     </row>
     <row r="45" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>642</v>
+      </c>
+    </row>
     <row r="47" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>406</v>
+        <v>646</v>
       </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>647</v>
+      </c>
       <c r="M48" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>400</v>
-      </c>
       <c r="M49" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>490</v>
+        <v>479</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>637</v>
       </c>
       <c r="M50" t="s">
         <v>207</v>
@@ -7628,15 +7763,18 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>491</v>
+        <v>480</v>
+      </c>
+      <c r="F51" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F52" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7644,10 +7782,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F53" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="M53" t="s">
         <v>209</v>
@@ -7655,10 +7793,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F54" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="M54" t="s">
         <v>210</v>
@@ -7668,8 +7806,11 @@
       <c r="A55">
         <v>9512861203</v>
       </c>
+      <c r="E55" t="s">
+        <v>224</v>
+      </c>
       <c r="F55" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="M55" t="s">
         <v>211</v>
@@ -7677,10 +7818,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>484</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M56" t="s">
         <v>212</v>
@@ -7688,23 +7832,35 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s">
         <v>352</v>
       </c>
+      <c r="C57" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="F57" t="s">
+        <v>656</v>
+      </c>
       <c r="M57" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="35" t="s">
+        <v>606</v>
+      </c>
       <c r="F58" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="35" t="s">
+        <v>604</v>
+      </c>
       <c r="F59" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="M59" t="s">
         <v>214</v>
@@ -7712,7 +7868,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="M60" t="s">
         <v>204</v>
@@ -7720,10 +7876,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F61" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="M61" t="s">
         <v>205</v>
@@ -7731,7 +7887,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s">
         <v>206</v>
@@ -7739,24 +7895,18 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s">
         <v>361</v>
       </c>
-      <c r="F63" s="35" t="s">
-        <v>619</v>
-      </c>
       <c r="M63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>473</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>620</v>
+        <v>464</v>
       </c>
       <c r="M64" t="s">
         <v>208</v>
@@ -7766,16 +7916,13 @@
       <c r="A65" t="s">
         <v>373</v>
       </c>
-      <c r="F65" s="35" t="s">
-        <v>618</v>
-      </c>
       <c r="M65" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M66" t="s">
         <v>210</v>
@@ -7796,7 +7943,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="F69" t="s">
+        <v>660</v>
       </c>
       <c r="M69" t="s">
         <v>213</v>
@@ -7804,23 +7954,26 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>475</v>
+        <v>466</v>
+      </c>
+      <c r="F70" t="s">
+        <v>661</v>
       </c>
       <c r="M70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>663</v>
+      </c>
       <c r="M71" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>503</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>628</v>
+        <v>492</v>
       </c>
       <c r="M72" t="s">
         <v>225</v>
@@ -7828,7 +7981,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s">
         <v>226</v>
@@ -7836,29 +7989,20 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>505</v>
-      </c>
-      <c r="F74" t="s">
-        <v>629</v>
+        <v>494</v>
       </c>
       <c r="M74" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F75" t="s">
-        <v>630</v>
-      </c>
       <c r="M75" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>605</v>
-      </c>
-      <c r="F76" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="M76" t="s">
         <v>255</v>
@@ -7866,10 +8010,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>606</v>
-      </c>
-      <c r="F77" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="M77" t="s">
         <v>257</v>
@@ -7877,7 +8018,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="M78" t="s">
         <v>251</v>
@@ -7885,12 +8026,18 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>608</v>
+        <v>594</v>
+      </c>
+      <c r="F79" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>609</v>
+        <v>595</v>
+      </c>
+      <c r="F80" t="s">
+        <v>665</v>
       </c>
       <c r="M80" t="s">
         <v>252</v>
@@ -7898,7 +8045,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>610</v>
+        <v>596</v>
+      </c>
+      <c r="F81" t="s">
+        <v>666</v>
       </c>
       <c r="M81" t="s">
         <v>253</v>
@@ -7906,7 +8056,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>597</v>
+      </c>
+      <c r="F82" t="s">
+        <v>667</v>
       </c>
       <c r="M82" t="s">
         <v>244</v>
@@ -7914,7 +8067,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>612</v>
+        <v>598</v>
+      </c>
+      <c r="F83" t="s">
+        <v>668</v>
       </c>
       <c r="M83" t="s">
         <v>262</v>
@@ -7922,7 +8078,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="M84" t="s">
         <v>259</v>
@@ -7930,7 +8086,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="M85" t="s">
         <v>264</v>
@@ -7938,7 +8094,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="M86" t="s">
         <v>240</v>
@@ -7950,26 +8106,41 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>403</v>
+      </c>
       <c r="M88" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>271</v>
+      </c>
       <c r="M89" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>291</v>
+      </c>
       <c r="M90" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>292</v>
+      </c>
       <c r="M91" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>293</v>
+      </c>
       <c r="M92" t="s">
         <v>275</v>
       </c>
@@ -7980,6 +8151,9 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>408</v>
+      </c>
       <c r="M94" t="s">
         <v>279</v>
       </c>
@@ -7994,82 +8168,103 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>409</v>
+      </c>
       <c r="M97" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>410</v>
+      </c>
       <c r="M98" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>411</v>
+      </c>
       <c r="M99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>435</v>
+      </c>
+      <c r="M100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>436</v>
+      </c>
+      <c r="M101" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>438</v>
+      </c>
+      <c r="M102" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>435</v>
+      </c>
+      <c r="M103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M100" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M101" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M102" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M103" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M104" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M105" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M107" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
         <v>404</v>
       </c>
@@ -8121,7 +8316,7 @@
     </row>
     <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.25">
@@ -8236,7 +8431,7 @@
     </row>
     <row r="146" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M146" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="13:14" x14ac:dyDescent="0.25">
@@ -8244,7 +8439,7 @@
         <v>241</v>
       </c>
       <c r="N147" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="13:14" x14ac:dyDescent="0.25">
@@ -8252,7 +8447,7 @@
         <v>224</v>
       </c>
       <c r="N148" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="13:14" x14ac:dyDescent="0.25">
@@ -8260,7 +8455,7 @@
         <v>224</v>
       </c>
       <c r="N149" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="13:14" x14ac:dyDescent="0.25">
@@ -8268,7 +8463,7 @@
         <v>224</v>
       </c>
       <c r="N150" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="13:14" x14ac:dyDescent="0.25">
@@ -8276,7 +8471,7 @@
         <v>224</v>
       </c>
       <c r="N151" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="13:14" x14ac:dyDescent="0.25">
@@ -8284,7 +8479,7 @@
         <v>224</v>
       </c>
       <c r="N152" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="13:14" x14ac:dyDescent="0.25">
@@ -8292,7 +8487,7 @@
         <v>241</v>
       </c>
       <c r="N153" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="13:14" x14ac:dyDescent="0.25">
@@ -8300,7 +8495,7 @@
         <v>241</v>
       </c>
       <c r="N154" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="13:14" x14ac:dyDescent="0.25">
@@ -8308,7 +8503,7 @@
         <v>241</v>
       </c>
       <c r="N155" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="13:14" x14ac:dyDescent="0.25">
@@ -8316,7 +8511,7 @@
         <v>224</v>
       </c>
       <c r="N156" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="13:14" x14ac:dyDescent="0.25">
@@ -8324,7 +8519,7 @@
         <v>224</v>
       </c>
       <c r="N157" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="13:14" x14ac:dyDescent="0.25">
@@ -8332,7 +8527,7 @@
         <v>224</v>
       </c>
       <c r="N158" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159" spans="13:14" x14ac:dyDescent="0.25">
@@ -8340,7 +8535,7 @@
         <v>241</v>
       </c>
       <c r="N159" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="13:14" x14ac:dyDescent="0.25">
@@ -8348,7 +8543,7 @@
         <v>224</v>
       </c>
       <c r="N160" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="13:14" x14ac:dyDescent="0.25">
@@ -8356,7 +8551,7 @@
         <v>224</v>
       </c>
       <c r="N161" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="162" spans="13:14" x14ac:dyDescent="0.25">
@@ -8364,7 +8559,7 @@
         <v>224</v>
       </c>
       <c r="N162" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="13:14" x14ac:dyDescent="0.25">
@@ -8372,7 +8567,7 @@
         <v>224</v>
       </c>
       <c r="N163" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="13:14" x14ac:dyDescent="0.25">
@@ -8380,7 +8575,7 @@
         <v>241</v>
       </c>
       <c r="N164" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="13:14" x14ac:dyDescent="0.25">
@@ -8388,7 +8583,7 @@
         <v>241</v>
       </c>
       <c r="N165" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="13:14" x14ac:dyDescent="0.25">
@@ -8396,7 +8591,7 @@
         <v>241</v>
       </c>
       <c r="N166" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="167" spans="13:14" x14ac:dyDescent="0.25">
@@ -8404,7 +8599,7 @@
         <v>241</v>
       </c>
       <c r="N167" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="13:14" x14ac:dyDescent="0.25">
@@ -8425,7 +8620,7 @@
     </row>
     <row r="170" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M170" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N170" t="s">
         <v>241</v>
@@ -8436,7 +8631,7 @@
         <v>224</v>
       </c>
       <c r="N171" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="13:14" x14ac:dyDescent="0.25">
@@ -8444,7 +8639,7 @@
         <v>224</v>
       </c>
       <c r="N172" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="13:14" x14ac:dyDescent="0.25">
@@ -8452,7 +8647,7 @@
         <v>224</v>
       </c>
       <c r="N173" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="13:14" x14ac:dyDescent="0.25">
@@ -8460,7 +8655,7 @@
         <v>224</v>
       </c>
       <c r="N174" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="13:14" x14ac:dyDescent="0.25">
@@ -8468,7 +8663,7 @@
         <v>224</v>
       </c>
       <c r="N175" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="13:14" x14ac:dyDescent="0.25">
@@ -8476,65 +8671,62 @@
         <v>224</v>
       </c>
       <c r="N176" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M177" t="s">
         <v>224</v>
       </c>
       <c r="N177" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="179" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="182" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="P182" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="183" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Q183" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="P184" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M185" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>403</v>
-      </c>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="186" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M186" t="s">
         <v>343</v>
       </c>
@@ -8542,195 +8734,159 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>271</v>
-      </c>
+    <row r="187" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M187" t="s">
         <v>241</v>
       </c>
       <c r="N187" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>291</v>
-      </c>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="188" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M188" t="s">
         <v>224</v>
       </c>
       <c r="N188" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>292</v>
-      </c>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="189" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M189" t="s">
         <v>241</v>
       </c>
       <c r="N189" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>293</v>
-      </c>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="190" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M190" t="s">
         <v>224</v>
       </c>
       <c r="N190" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="191" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M191" t="s">
         <v>224</v>
       </c>
       <c r="N191" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>408</v>
-      </c>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="192" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M192" t="s">
         <v>224</v>
       </c>
       <c r="N192" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="193" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M193" t="s">
         <v>224</v>
       </c>
       <c r="N193" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="194" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M194" t="s">
         <v>241</v>
       </c>
       <c r="N194" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>409</v>
-      </c>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="195" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M195" t="s">
         <v>224</v>
       </c>
       <c r="N195" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>410</v>
-      </c>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="196" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M196" t="s">
         <v>224</v>
       </c>
       <c r="N196" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>411</v>
-      </c>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="197" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M197" t="s">
         <v>224</v>
       </c>
       <c r="N197" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>437</v>
-      </c>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="198" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M198" t="s">
         <v>224</v>
       </c>
       <c r="N198" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>438</v>
-      </c>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="199" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M199" t="s">
         <v>224</v>
       </c>
       <c r="N199" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>440</v>
-      </c>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="200" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M200" t="s">
         <v>224</v>
       </c>
       <c r="N200" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>437</v>
-      </c>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="201" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M201" t="s">
         <v>224</v>
       </c>
       <c r="N201" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="202" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M202" t="s">
         <v>224</v>
       </c>
       <c r="N202" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="203" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M203" t="s">
         <v>241</v>
       </c>
       <c r="N203" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="204" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M204" t="s">
         <v>241</v>
       </c>
       <c r="N204" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="205" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M205" t="s">
         <v>224</v>
       </c>
       <c r="N205" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="206" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M206" t="s">
         <v>224</v>
       </c>
@@ -8738,20 +8894,20 @@
         <v>298</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M207" t="s">
         <v>224</v>
       </c>
       <c r="N207" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="208" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M208" t="s">
         <v>224</v>
       </c>
       <c r="N208" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="209" spans="13:14" x14ac:dyDescent="0.25">
@@ -8759,7 +8915,7 @@
         <v>224</v>
       </c>
       <c r="N209" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="13:14" x14ac:dyDescent="0.25">
@@ -8767,7 +8923,7 @@
         <v>224</v>
       </c>
       <c r="N210" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="13:14" x14ac:dyDescent="0.25">
@@ -8775,7 +8931,7 @@
         <v>241</v>
       </c>
       <c r="N211" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="13:14" x14ac:dyDescent="0.25">
@@ -8783,23 +8939,201 @@
         <v>224</v>
       </c>
       <c r="N212" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M213" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="N213" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M214" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="N214" t="s">
-        <v>582</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="215" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>224</v>
+      </c>
+      <c r="N215" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="216" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>224</v>
+      </c>
+      <c r="N216" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="217" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>224</v>
+      </c>
+      <c r="N217" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="218" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>224</v>
+      </c>
+      <c r="N218" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="219" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>224</v>
+      </c>
+      <c r="N219" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="220" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>224</v>
+      </c>
+      <c r="N220" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="221" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>224</v>
+      </c>
+      <c r="N221" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="222" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>224</v>
+      </c>
+      <c r="N222" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="223" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>224</v>
+      </c>
+      <c r="N223" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="224" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>224</v>
+      </c>
+      <c r="N224" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="225" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>224</v>
+      </c>
+      <c r="N225" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="226" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>224</v>
+      </c>
+      <c r="N226" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>241</v>
+      </c>
+      <c r="N227" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="228" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>241</v>
+      </c>
+      <c r="N228" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="229" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="230" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>224</v>
+      </c>
+      <c r="N230" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="231" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="232" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>224</v>
+      </c>
+      <c r="N232" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="233" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>224</v>
+      </c>
+      <c r="N233" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="234" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>224</v>
+      </c>
+      <c r="N234" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="235" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>224</v>
+      </c>
+      <c r="N235" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>224</v>
+      </c>
+      <c r="N236" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="237" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M237" t="s">
+        <v>224</v>
+      </c>
+      <c r="N237" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -8828,7 +9162,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8837,7 +9171,7 @@
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
@@ -8858,18 +9192,18 @@
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="D8" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>345</v>
@@ -8880,7 +9214,7 @@
         <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8889,7 +9223,7 @@
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,7 +9232,7 @@
         <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8907,7 +9241,7 @@
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8916,7 +9250,7 @@
         <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8925,7 +9259,7 @@
         <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8934,7 +9268,7 @@
         <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,7 +9276,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
       <c r="D17" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8957,7 +9291,7 @@
         <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8966,7 +9300,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,7 +9309,7 @@
         <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8984,7 +9318,7 @@
         <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9023,7 +9357,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9038,7 +9372,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9251,13 +9585,13 @@
         <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="D65" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -9342,7 +9676,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="D80" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -9366,7 +9700,7 @@
       </c>
       <c r="C84" s="23"/>
       <c r="D84" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -9459,7 +9793,7 @@
     </row>
     <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="I139" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6C3093-F277-4FD7-90F3-E38662F23014}"/>
+  <xr:revisionPtr revIDLastSave="835" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD5A215-DFBC-4162-87DC-283D00993845}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="671">
   <si>
     <t>Sprint</t>
   </si>
@@ -2051,6 +2051,12 @@
   </si>
   <si>
     <t>solo envios a zimatlan de alvarez</t>
+  </si>
+  <si>
+    <t>forzar vistas proceso compra</t>
+  </si>
+  <si>
+    <t>minimo ventas</t>
   </si>
 </sst>
 </file>
@@ -7237,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="E53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,6 +7895,9 @@
       <c r="A62" t="s">
         <v>462</v>
       </c>
+      <c r="F62" t="s">
+        <v>669</v>
+      </c>
       <c r="M62" t="s">
         <v>206</v>
       </c>
@@ -7899,6 +7908,9 @@
       </c>
       <c r="B63" t="s">
         <v>361</v>
+      </c>
+      <c r="F63" t="s">
+        <v>670</v>
       </c>
       <c r="M63" t="s">
         <v>207</v>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="835" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD5A215-DFBC-4162-87DC-283D00993845}"/>
+  <xr:revisionPtr revIDLastSave="862" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7664A2-C636-4E22-AF2C-4E2CE4BCCCB7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="636">
   <si>
     <t>Sprint</t>
   </si>
@@ -1321,9 +1321,6 @@
   </si>
   <si>
     <t xml:space="preserve">perguntar  a marisol si debemos enviar ambos la solicitud de residencia o solo uno. </t>
-  </si>
-  <si>
-    <t>historial de pedidos</t>
   </si>
   <si>
     <t>CHECAR BIEN EL BUSCADOR DE PRODUCTO</t>
@@ -1423,12 +1420,6 @@
     <t>CORTE</t>
   </si>
   <si>
-    <t xml:space="preserve">Cotizaciones. </t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
     <t>INTRODUCCION</t>
   </si>
   <si>
@@ -1474,15 +1465,6 @@
     <t>complementar manual de usuario</t>
   </si>
   <si>
-    <t>vistas de seguimiento de pedido</t>
-  </si>
-  <si>
-    <t>pagos paypal</t>
-  </si>
-  <si>
-    <t>vistas del modulo de cotizacion</t>
-  </si>
-  <si>
     <t>FOTO PERSONAL PANORAMICA: img_1220</t>
   </si>
   <si>
@@ -1504,9 +1486,6 @@
     <t>carrera</t>
   </si>
   <si>
-    <t>confirmar correo de los clientes que se registran en el ecommerce</t>
-  </si>
-  <si>
     <t>testear envios de correos del modulo monitoreo</t>
   </si>
   <si>
@@ -1702,9 +1681,6 @@
     <t>DOCUMENTACION</t>
   </si>
   <si>
-    <t>ECOMMERVE</t>
-  </si>
-  <si>
     <t>BUSCAR POR TIPOS PRODUCTOS</t>
   </si>
   <si>
@@ -1897,12 +1873,6 @@
     <t>FUNCIONALIDAD HISTORIAL PEDIDOS</t>
   </si>
   <si>
-    <t>FUNCIONALIDAD SEGUIMIENTO PEDIDO</t>
-  </si>
-  <si>
-    <t>CHECAR PAGOS</t>
-  </si>
-  <si>
     <t>imprimir ticket</t>
   </si>
   <si>
@@ -1918,15 +1888,9 @@
     <t>imprimir header</t>
   </si>
   <si>
-    <t>cargar imágenes en icommerce y poner precios</t>
-  </si>
-  <si>
     <t>agregar cajero y folio AL TICKET</t>
   </si>
   <si>
-    <t>boton regresar</t>
-  </si>
-  <si>
     <t>manda un error al iniciar sesion en punto vwnta</t>
   </si>
   <si>
@@ -1954,42 +1918,9 @@
     <t>En venta carga cliente de ecomemrce</t>
   </si>
   <si>
-    <t>validar registro cliente en el ecommerce</t>
-  </si>
-  <si>
-    <t>trabajar con responsibidad del ecommerce</t>
-  </si>
-  <si>
-    <t>terminar las ventas del ecommerce</t>
-  </si>
-  <si>
-    <t>terminar los pagos</t>
-  </si>
-  <si>
-    <t>terminar seguimiento de pedidos</t>
-  </si>
-  <si>
-    <t>Quitar boton de pagar en direccion de envio</t>
-  </si>
-  <si>
-    <t>agregar forma de pago contra entrega</t>
-  </si>
-  <si>
-    <t>checar las preguntas a hacerle a la doctora Leicy</t>
-  </si>
-  <si>
     <t>en alta de productos carga id Departamento</t>
   </si>
   <si>
-    <t>Al registrarse el cliente pedirle su direccion y su numero de cuenta</t>
-  </si>
-  <si>
-    <t>Preguntarle al cliente con cuanto va a pagar al entregar</t>
-  </si>
-  <si>
-    <t>quitar productos de carrito proincipal</t>
-  </si>
-  <si>
     <t>precio mando muchos decimales SUBPRODUCto</t>
   </si>
   <si>
@@ -2011,39 +1942,9 @@
     <t>eliminar imagen info producto</t>
   </si>
   <si>
-    <t>checar documentacion a firmar asesora externa</t>
-  </si>
-  <si>
-    <t>checar responsibidad de carrito</t>
-  </si>
-  <si>
-    <t>mantener logueado al cliente cuando se registra</t>
-  </si>
-  <si>
-    <t>checar api colonias</t>
-  </si>
-  <si>
-    <t>terminar resumen de compra</t>
-  </si>
-  <si>
-    <t>CHECAR LEICY</t>
-  </si>
-  <si>
-    <t>envios gratis</t>
-  </si>
-  <si>
-    <t>agregar boton contraentrega</t>
-  </si>
-  <si>
-    <t>tiempo de entrega estimado paquetes solicitados</t>
-  </si>
-  <si>
     <t>anuncios</t>
   </si>
   <si>
-    <t>envios gratis a partir de $</t>
-  </si>
-  <si>
     <t>Envios a partir de $50</t>
   </si>
   <si>
@@ -2051,12 +1952,6 @@
   </si>
   <si>
     <t>solo envios a zimatlan de alvarez</t>
-  </si>
-  <si>
-    <t>forzar vistas proceso compra</t>
-  </si>
-  <si>
-    <t>minimo ventas</t>
   </si>
 </sst>
 </file>
@@ -3509,7 +3404,7 @@
         <v>372</v>
       </c>
       <c r="M10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3575,7 +3470,7 @@
         <v>326</v>
       </c>
       <c r="M16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,7 +3481,7 @@
         <v>378</v>
       </c>
       <c r="M17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3597,7 +3492,7 @@
         <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3619,7 +3514,7 @@
         <v>328</v>
       </c>
       <c r="M20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3756,7 +3651,7 @@
         <v>353</v>
       </c>
       <c r="M33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3780,7 +3675,7 @@
         <v>360</v>
       </c>
       <c r="M36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3804,7 +3699,7 @@
         <v>394</v>
       </c>
       <c r="M39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3812,7 +3707,7 @@
         <v>364</v>
       </c>
       <c r="M40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3825,7 +3720,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3895,7 +3790,7 @@
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.25">
@@ -3925,12 +3820,12 @@
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.25">
@@ -3940,22 +3835,22 @@
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="13:13" x14ac:dyDescent="0.25">
@@ -3965,12 +3860,12 @@
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.25">
@@ -7137,7 +7032,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7243,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7261,21 +7156,21 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
       <c r="F1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M2" t="s">
         <v>224</v>
@@ -7283,16 +7178,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D3" t="s">
         <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="J3" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="M3" t="s">
         <v>221</v>
@@ -7306,13 +7201,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="M4" t="s">
         <v>225</v>
@@ -7326,13 +7221,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="M5" t="s">
         <v>226</v>
@@ -7349,7 +7244,7 @@
         <v>420</v>
       </c>
       <c r="F6" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="M6" t="s">
         <v>227</v>
@@ -7363,10 +7258,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F7" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="M7" t="s">
         <v>235</v>
@@ -7380,7 +7275,7 @@
         <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="M8" t="s">
         <v>231</v>
@@ -7391,10 +7286,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="M9" t="s">
         <v>222</v>
@@ -7405,10 +7300,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F10" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="M10" t="s">
         <v>236</v>
@@ -7416,10 +7311,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="M11" t="s">
         <v>228</v>
@@ -7430,10 +7325,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F12" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M12" t="s">
         <v>229</v>
@@ -7441,10 +7336,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F13" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M13" t="s">
         <v>230</v>
@@ -7455,10 +7350,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F14" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M14" t="s">
         <v>232</v>
@@ -7466,7 +7361,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F15" t="s">
         <v>294</v>
@@ -7480,10 +7375,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F16" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M16" t="s">
         <v>234</v>
@@ -7494,7 +7389,7 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F17" t="s">
         <v>422</v>
@@ -7505,7 +7400,7 @@
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="M18" t="s">
         <v>407</v>
@@ -7513,7 +7408,7 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="M19" t="s">
         <v>413</v>
@@ -7524,7 +7419,7 @@
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M20" t="s">
         <v>415</v>
@@ -7532,10 +7427,10 @@
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F21" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="M21" t="s">
         <v>416</v>
@@ -7559,7 +7454,7 @@
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M24" t="s">
         <v>419</v>
@@ -7567,7 +7462,7 @@
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M25" t="s">
         <v>242</v>
@@ -7575,7 +7470,7 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="M26" t="s">
         <v>260</v>
@@ -7583,7 +7478,7 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="M27" t="s">
         <v>245</v>
@@ -7591,7 +7486,7 @@
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="M28" t="s">
         <v>278</v>
@@ -7599,48 +7494,33 @@
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F29" s="35" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M29" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>617</v>
-      </c>
       <c r="M30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>618</v>
-      </c>
       <c r="M31" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>624</v>
-      </c>
       <c r="M32" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>626</v>
-      </c>
       <c r="M33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="34" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>476</v>
-      </c>
       <c r="M34" t="s">
         <v>265</v>
       </c>
@@ -7656,94 +7536,57 @@
       </c>
     </row>
     <row r="37" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="23" t="s">
-        <v>552</v>
-      </c>
+      <c r="F37" s="23"/>
       <c r="M37" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="38" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>459</v>
-      </c>
       <c r="M38" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="39" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>460</v>
-      </c>
       <c r="M39" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="40" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>477</v>
-      </c>
       <c r="M40" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>478</v>
-      </c>
       <c r="M41" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>426</v>
-      </c>
       <c r="M42" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="43" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>486</v>
-      </c>
       <c r="M43" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>636</v>
-      </c>
       <c r="M44" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>645</v>
-      </c>
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>642</v>
-      </c>
-    </row>
     <row r="47" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>646</v>
-      </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>647</v>
-      </c>
       <c r="M48" t="s">
         <v>205</v>
       </c>
@@ -7755,32 +7598,23 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E50" t="s">
         <v>224</v>
       </c>
-      <c r="F50" t="s">
-        <v>637</v>
-      </c>
       <c r="M50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>480</v>
-      </c>
-      <c r="F51" t="s">
-        <v>638</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>481</v>
-      </c>
-      <c r="F52" t="s">
-        <v>639</v>
+        <v>475</v>
       </c>
       <c r="M52" t="s">
         <v>208</v>
@@ -7788,10 +7622,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>482</v>
-      </c>
-      <c r="F53" t="s">
-        <v>640</v>
+        <v>476</v>
       </c>
       <c r="M53" t="s">
         <v>209</v>
@@ -7799,10 +7630,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>483</v>
-      </c>
-      <c r="F54" t="s">
-        <v>641</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s">
         <v>210</v>
@@ -7815,39 +7643,30 @@
       <c r="E55" t="s">
         <v>224</v>
       </c>
-      <c r="F55" t="s">
-        <v>643</v>
-      </c>
       <c r="M55" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E56" t="s">
         <v>224</v>
       </c>
-      <c r="F56" t="s">
-        <v>655</v>
-      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
         <v>352</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>605</v>
-      </c>
-      <c r="F57" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="M57" t="s">
         <v>213</v>
@@ -7855,37 +7674,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C58" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="F58" t="s">
-        <v>657</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C59" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="F59" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="M59" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
-        <v>659</v>
-      </c>
       <c r="M60" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>461</v>
-      </c>
-      <c r="F61" t="s">
-        <v>662</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s">
         <v>205</v>
@@ -7893,10 +7700,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>462</v>
-      </c>
-      <c r="F62" t="s">
-        <v>669</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s">
         <v>206</v>
@@ -7904,21 +7708,18 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s">
         <v>361</v>
       </c>
-      <c r="F63" t="s">
-        <v>670</v>
-      </c>
       <c r="M63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s">
         <v>208</v>
@@ -7934,7 +7735,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s">
         <v>210</v>
@@ -7955,10 +7756,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F69" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="M69" t="s">
         <v>213</v>
@@ -7966,10 +7767,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F70" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="M70" t="s">
         <v>214</v>
@@ -7977,7 +7778,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="M71" t="s">
         <v>221</v>
@@ -7985,7 +7786,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>485</v>
+      </c>
+      <c r="F72" t="s">
+        <v>634</v>
       </c>
       <c r="M72" t="s">
         <v>225</v>
@@ -7993,7 +7797,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s">
         <v>226</v>
@@ -8001,7 +7805,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M74" t="s">
         <v>261</v>
@@ -8014,7 +7818,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M76" t="s">
         <v>255</v>
@@ -8022,7 +7826,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M77" t="s">
         <v>257</v>
@@ -8030,7 +7834,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="M78" t="s">
         <v>251</v>
@@ -8038,18 +7842,12 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>594</v>
-      </c>
-      <c r="F79" t="s">
-        <v>664</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>595</v>
-      </c>
-      <c r="F80" t="s">
-        <v>665</v>
+        <v>587</v>
       </c>
       <c r="M80" t="s">
         <v>252</v>
@@ -8057,10 +7855,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>596</v>
-      </c>
-      <c r="F81" t="s">
-        <v>666</v>
+        <v>588</v>
       </c>
       <c r="M81" t="s">
         <v>253</v>
@@ -8068,10 +7863,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>597</v>
-      </c>
-      <c r="F82" t="s">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="M82" t="s">
         <v>244</v>
@@ -8079,10 +7871,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>598</v>
-      </c>
-      <c r="F83" t="s">
-        <v>668</v>
+        <v>590</v>
       </c>
       <c r="M83" t="s">
         <v>262</v>
@@ -8090,7 +7879,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M84" t="s">
         <v>259</v>
@@ -8098,7 +7887,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M85" t="s">
         <v>264</v>
@@ -8106,7 +7895,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M86" t="s">
         <v>240</v>
@@ -8201,44 +7990,44 @@
         <v>411</v>
       </c>
       <c r="M99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -8443,7 +8232,7 @@
     </row>
     <row r="146" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M146" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147" spans="13:14" x14ac:dyDescent="0.25">
@@ -8451,7 +8240,7 @@
         <v>241</v>
       </c>
       <c r="N147" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="13:14" x14ac:dyDescent="0.25">
@@ -8459,7 +8248,7 @@
         <v>224</v>
       </c>
       <c r="N148" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="13:14" x14ac:dyDescent="0.25">
@@ -8467,7 +8256,7 @@
         <v>224</v>
       </c>
       <c r="N149" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="13:14" x14ac:dyDescent="0.25">
@@ -8475,7 +8264,7 @@
         <v>224</v>
       </c>
       <c r="N150" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="13:14" x14ac:dyDescent="0.25">
@@ -8483,7 +8272,7 @@
         <v>224</v>
       </c>
       <c r="N151" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="13:14" x14ac:dyDescent="0.25">
@@ -8491,7 +8280,7 @@
         <v>224</v>
       </c>
       <c r="N152" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="13:14" x14ac:dyDescent="0.25">
@@ -8499,7 +8288,7 @@
         <v>241</v>
       </c>
       <c r="N153" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="13:14" x14ac:dyDescent="0.25">
@@ -8507,7 +8296,7 @@
         <v>241</v>
       </c>
       <c r="N154" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="13:14" x14ac:dyDescent="0.25">
@@ -8515,7 +8304,7 @@
         <v>241</v>
       </c>
       <c r="N155" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="13:14" x14ac:dyDescent="0.25">
@@ -8523,7 +8312,7 @@
         <v>224</v>
       </c>
       <c r="N156" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="13:14" x14ac:dyDescent="0.25">
@@ -8531,7 +8320,7 @@
         <v>224</v>
       </c>
       <c r="N157" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="13:14" x14ac:dyDescent="0.25">
@@ -8539,7 +8328,7 @@
         <v>224</v>
       </c>
       <c r="N158" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="159" spans="13:14" x14ac:dyDescent="0.25">
@@ -8547,7 +8336,7 @@
         <v>241</v>
       </c>
       <c r="N159" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="13:14" x14ac:dyDescent="0.25">
@@ -8555,7 +8344,7 @@
         <v>224</v>
       </c>
       <c r="N160" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="13:14" x14ac:dyDescent="0.25">
@@ -8563,7 +8352,7 @@
         <v>224</v>
       </c>
       <c r="N161" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="13:14" x14ac:dyDescent="0.25">
@@ -8571,7 +8360,7 @@
         <v>224</v>
       </c>
       <c r="N162" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="163" spans="13:14" x14ac:dyDescent="0.25">
@@ -8579,7 +8368,7 @@
         <v>224</v>
       </c>
       <c r="N163" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="13:14" x14ac:dyDescent="0.25">
@@ -8587,7 +8376,7 @@
         <v>241</v>
       </c>
       <c r="N164" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="13:14" x14ac:dyDescent="0.25">
@@ -8595,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="N165" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="13:14" x14ac:dyDescent="0.25">
@@ -8603,7 +8392,7 @@
         <v>241</v>
       </c>
       <c r="N166" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167" spans="13:14" x14ac:dyDescent="0.25">
@@ -8611,7 +8400,7 @@
         <v>241</v>
       </c>
       <c r="N167" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="13:14" x14ac:dyDescent="0.25">
@@ -8643,7 +8432,7 @@
         <v>224</v>
       </c>
       <c r="N171" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="13:14" x14ac:dyDescent="0.25">
@@ -8651,7 +8440,7 @@
         <v>224</v>
       </c>
       <c r="N172" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="13:14" x14ac:dyDescent="0.25">
@@ -8659,7 +8448,7 @@
         <v>224</v>
       </c>
       <c r="N173" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="13:14" x14ac:dyDescent="0.25">
@@ -8667,7 +8456,7 @@
         <v>224</v>
       </c>
       <c r="N174" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="13:14" x14ac:dyDescent="0.25">
@@ -8675,7 +8464,7 @@
         <v>224</v>
       </c>
       <c r="N175" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="13:14" x14ac:dyDescent="0.25">
@@ -8683,7 +8472,7 @@
         <v>224</v>
       </c>
       <c r="N176" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="13:17" x14ac:dyDescent="0.25">
@@ -8691,35 +8480,35 @@
         <v>224</v>
       </c>
       <c r="N177" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="182" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P182" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q183" t="s">
         <v>241</v>
@@ -8727,7 +8516,7 @@
     </row>
     <row r="184" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P184" t="s">
         <v>224</v>
@@ -8735,7 +8524,7 @@
     </row>
     <row r="185" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M185" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="13:17" x14ac:dyDescent="0.25">
@@ -8751,7 +8540,7 @@
         <v>241</v>
       </c>
       <c r="N187" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" spans="13:17" x14ac:dyDescent="0.25">
@@ -8759,7 +8548,7 @@
         <v>224</v>
       </c>
       <c r="N188" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="13:17" x14ac:dyDescent="0.25">
@@ -8767,7 +8556,7 @@
         <v>241</v>
       </c>
       <c r="N189" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="13:17" x14ac:dyDescent="0.25">
@@ -8775,7 +8564,7 @@
         <v>224</v>
       </c>
       <c r="N190" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="13:17" x14ac:dyDescent="0.25">
@@ -8783,7 +8572,7 @@
         <v>224</v>
       </c>
       <c r="N191" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="13:17" x14ac:dyDescent="0.25">
@@ -8791,7 +8580,7 @@
         <v>224</v>
       </c>
       <c r="N192" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="193" spans="13:14" x14ac:dyDescent="0.25">
@@ -8799,7 +8588,7 @@
         <v>224</v>
       </c>
       <c r="N193" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" spans="13:14" x14ac:dyDescent="0.25">
@@ -8807,7 +8596,7 @@
         <v>241</v>
       </c>
       <c r="N194" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="13:14" x14ac:dyDescent="0.25">
@@ -8815,7 +8604,7 @@
         <v>224</v>
       </c>
       <c r="N195" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="13:14" x14ac:dyDescent="0.25">
@@ -8823,7 +8612,7 @@
         <v>224</v>
       </c>
       <c r="N196" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="13:14" x14ac:dyDescent="0.25">
@@ -8831,7 +8620,7 @@
         <v>224</v>
       </c>
       <c r="N197" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="13:14" x14ac:dyDescent="0.25">
@@ -8839,7 +8628,7 @@
         <v>224</v>
       </c>
       <c r="N198" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="199" spans="13:14" x14ac:dyDescent="0.25">
@@ -8847,7 +8636,7 @@
         <v>224</v>
       </c>
       <c r="N199" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="13:14" x14ac:dyDescent="0.25">
@@ -8855,7 +8644,7 @@
         <v>224</v>
       </c>
       <c r="N200" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="13:14" x14ac:dyDescent="0.25">
@@ -8863,7 +8652,7 @@
         <v>224</v>
       </c>
       <c r="N201" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" spans="13:14" x14ac:dyDescent="0.25">
@@ -8871,7 +8660,7 @@
         <v>224</v>
       </c>
       <c r="N202" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="203" spans="13:14" x14ac:dyDescent="0.25">
@@ -8879,7 +8668,7 @@
         <v>241</v>
       </c>
       <c r="N203" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204" spans="13:14" x14ac:dyDescent="0.25">
@@ -8887,7 +8676,7 @@
         <v>241</v>
       </c>
       <c r="N204" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="13:14" x14ac:dyDescent="0.25">
@@ -8895,7 +8684,7 @@
         <v>224</v>
       </c>
       <c r="N205" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="13:14" x14ac:dyDescent="0.25">
@@ -8911,7 +8700,7 @@
         <v>224</v>
       </c>
       <c r="N207" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="208" spans="13:14" x14ac:dyDescent="0.25">
@@ -8919,7 +8708,7 @@
         <v>224</v>
       </c>
       <c r="N208" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="13:14" x14ac:dyDescent="0.25">
@@ -8927,7 +8716,7 @@
         <v>224</v>
       </c>
       <c r="N209" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="13:14" x14ac:dyDescent="0.25">
@@ -8935,7 +8724,7 @@
         <v>224</v>
       </c>
       <c r="N210" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="211" spans="13:14" x14ac:dyDescent="0.25">
@@ -8943,7 +8732,7 @@
         <v>241</v>
       </c>
       <c r="N211" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="13:14" x14ac:dyDescent="0.25">
@@ -8951,23 +8740,23 @@
         <v>224</v>
       </c>
       <c r="N212" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="213" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M213" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="N213" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="214" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M214" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="N214" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="215" spans="13:14" x14ac:dyDescent="0.25">
@@ -8975,7 +8764,7 @@
         <v>224</v>
       </c>
       <c r="N215" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="216" spans="13:14" x14ac:dyDescent="0.25">
@@ -8983,7 +8772,7 @@
         <v>224</v>
       </c>
       <c r="N216" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="13:14" x14ac:dyDescent="0.25">
@@ -8991,7 +8780,7 @@
         <v>224</v>
       </c>
       <c r="N217" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="218" spans="13:14" x14ac:dyDescent="0.25">
@@ -8999,7 +8788,7 @@
         <v>224</v>
       </c>
       <c r="N218" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="13:14" x14ac:dyDescent="0.25">
@@ -9007,7 +8796,7 @@
         <v>224</v>
       </c>
       <c r="N219" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="13:14" x14ac:dyDescent="0.25">
@@ -9015,7 +8804,7 @@
         <v>224</v>
       </c>
       <c r="N220" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="13:14" x14ac:dyDescent="0.25">
@@ -9023,7 +8812,7 @@
         <v>224</v>
       </c>
       <c r="N221" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="13:14" x14ac:dyDescent="0.25">
@@ -9031,7 +8820,7 @@
         <v>224</v>
       </c>
       <c r="N222" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="13:14" x14ac:dyDescent="0.25">
@@ -9039,7 +8828,7 @@
         <v>224</v>
       </c>
       <c r="N223" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="224" spans="13:14" x14ac:dyDescent="0.25">
@@ -9047,7 +8836,7 @@
         <v>224</v>
       </c>
       <c r="N224" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" spans="13:14" x14ac:dyDescent="0.25">
@@ -9055,7 +8844,7 @@
         <v>224</v>
       </c>
       <c r="N225" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="13:14" x14ac:dyDescent="0.25">
@@ -9071,7 +8860,7 @@
         <v>241</v>
       </c>
       <c r="N227" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="13:14" x14ac:dyDescent="0.25">
@@ -9079,12 +8868,12 @@
         <v>241</v>
       </c>
       <c r="N228" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N229" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="230" spans="13:14" x14ac:dyDescent="0.25">
@@ -9092,12 +8881,12 @@
         <v>224</v>
       </c>
       <c r="N230" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="13:14" x14ac:dyDescent="0.25">
       <c r="N231" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="232" spans="13:14" x14ac:dyDescent="0.25">
@@ -9137,7 +8926,7 @@
         <v>224</v>
       </c>
       <c r="N236" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237" spans="13:14" x14ac:dyDescent="0.25">
@@ -9145,7 +8934,7 @@
         <v>224</v>
       </c>
       <c r="N237" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -9174,7 +8963,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,7 +8972,7 @@
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
         <v>200</v>
@@ -9204,18 +8993,18 @@
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>345</v>
@@ -9226,7 +9015,7 @@
         <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9235,7 +9024,7 @@
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9244,7 +9033,7 @@
         <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,7 +9042,7 @@
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9262,7 +9051,7 @@
         <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,7 +9060,7 @@
         <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9280,7 +9069,7 @@
         <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9288,7 +9077,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
       <c r="D17" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,7 +9092,7 @@
         <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9312,7 +9101,7 @@
         <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9321,7 +9110,7 @@
         <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,7 +9119,7 @@
         <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9369,7 +9158,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="D28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9384,7 +9173,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9597,13 +9386,13 @@
         <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="D65" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -9688,7 +9477,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="D80" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -9712,7 +9501,7 @@
       </c>
       <c r="C84" s="23"/>
       <c r="D84" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -9805,7 +9594,7 @@
     </row>
     <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="I139" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="862" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7664A2-C636-4E22-AF2C-4E2CE4BCCCB7}"/>
+  <xr:revisionPtr revIDLastSave="904" documentId="8_{64C3392B-9126-40B1-86A9-6A168394F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F039467-3F5E-484B-A2CB-835AA9A740E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="17" r:id="rId9"/>
     <sheet name="Hoja3" sheetId="18" r:id="rId10"/>
+    <sheet name="Hoja4" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="718">
   <si>
     <t>Sprint</t>
   </si>
@@ -1952,6 +1953,252 @@
   </si>
   <si>
     <t>solo envios a zimatlan de alvarez</t>
+  </si>
+  <si>
+    <t>corregir punto venta</t>
+  </si>
+  <si>
+    <t>compras marcar azulpagado rojo credito</t>
+  </si>
+  <si>
+    <t>testear reportes todos fallo uno</t>
+  </si>
+  <si>
+    <t>agregar abono abajo</t>
+  </si>
+  <si>
+    <t>que no se cierre modal de compra al agregar productos</t>
+  </si>
+  <si>
+    <t>compra: quitar titulo acciones en col ver</t>
+  </si>
+  <si>
+    <t>verificar acciones de las claves no inserta venta x clave</t>
+  </si>
+  <si>
+    <t>username editar a nombre de usuario</t>
+  </si>
+  <si>
+    <t>empleado baja y alta minuscula confirm</t>
+  </si>
+  <si>
+    <t>me fallo un poco resportes  nuevos</t>
+  </si>
+  <si>
+    <t>error desabilitado empleado</t>
+  </si>
+  <si>
+    <t>alta producto minuscula</t>
+  </si>
+  <si>
+    <t>costo in 4digitos</t>
+  </si>
+  <si>
+    <t>observacion no obligatorio</t>
+  </si>
+  <si>
+    <t>precio mando</t>
+  </si>
+  <si>
+    <t>en ventacarga cliente del ecommercer</t>
+  </si>
+  <si>
+    <t>punto venta</t>
+  </si>
+  <si>
+    <t>cliente nuevo no funcion clientes deudores</t>
+  </si>
+  <si>
+    <t>antiguo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotizaciones. </t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>pagos paypal</t>
+  </si>
+  <si>
+    <t>vistas del modulo de cotizacion</t>
+  </si>
+  <si>
+    <t>historial de pedidos</t>
+  </si>
+  <si>
+    <t>confirmar correo de los clientes que se registran en el ecommerce</t>
+  </si>
+  <si>
+    <t>validar registro cliente en el ecommerce</t>
+  </si>
+  <si>
+    <t>Al registrarse el cliente pedirle su direccion y su numero de cuenta</t>
+  </si>
+  <si>
+    <t>agregar forma de pago contra entrega ok</t>
+  </si>
+  <si>
+    <t>Preguntarle al cliente con cuanto va a pagar al entregar ok</t>
+  </si>
+  <si>
+    <t>quitar productos de carrito proincipalok</t>
+  </si>
+  <si>
+    <t>trabajar con responsibidad del ecommerce ok</t>
+  </si>
+  <si>
+    <t>terminar las ventas del ecommerce</t>
+  </si>
+  <si>
+    <t>terminar los pagos</t>
+  </si>
+  <si>
+    <t>terminar seguimiento de pedidos</t>
+  </si>
+  <si>
+    <t>Quitar boton de pagar en direccion de envio</t>
+  </si>
+  <si>
+    <t>checar las preguntas a hacerle a la doctora Leicy</t>
+  </si>
+  <si>
+    <t>checar documentacion a firmar asesora externa</t>
+  </si>
+  <si>
+    <t>checar responsibidad de carrito</t>
+  </si>
+  <si>
+    <t>mantener logueado al cliente cuando se registra</t>
+  </si>
+  <si>
+    <t>terminar resumen de compra</t>
+  </si>
+  <si>
+    <t>agregar boton contraentrega</t>
+  </si>
+  <si>
+    <t>vistas de seguimiento de pedido</t>
+  </si>
+  <si>
+    <t>AGREGAR solo mayusculas en los formularios ok</t>
+  </si>
+  <si>
+    <t>corregir editar datos cliente ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corregir pdf comprobante y complementar </t>
+  </si>
+  <si>
+    <t>subir al hosting proyecto</t>
+  </si>
+  <si>
+    <t>Quitar buscador en solicitud y seguimiento punto venta ok</t>
+  </si>
+  <si>
+    <t>Selecciona uno para ver informacion a detalleok</t>
+  </si>
+  <si>
+    <t>Dar estilo tabla derecha ok</t>
+  </si>
+  <si>
+    <t>alert index por el momento esta es la existencia que tenemos a la venta</t>
+  </si>
+  <si>
+    <t>agrandar total en detallecompra(direccion)</t>
+  </si>
+  <si>
+    <t>cambiar texto pago: pagará</t>
+  </si>
+  <si>
+    <t>ver producto quitar input no funciona</t>
+  </si>
+  <si>
+    <t>OK FUNCIONAvalidar minmo compra. validamos pedidos mayor a 50 ok</t>
+  </si>
+  <si>
+    <t>seguimiento pedido sin responsibidad *listo</t>
+  </si>
+  <si>
+    <t>agregar en que parte estamos mod cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mejorar vistas mmodulo cliente ecommerce </t>
+  </si>
+  <si>
+    <t>revisar testear y mejorar vista seguimiento en punto venta(no aparecio instruccion) y ecommerce</t>
+  </si>
+  <si>
+    <t>pedidos cancelados y entregados</t>
+  </si>
+  <si>
+    <t>revisar diseños también en libreta de seguimineto pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar diseño vermas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mis pedidos responsibidad </t>
+  </si>
+  <si>
+    <t>log out fallo</t>
+  </si>
+  <si>
+    <t>checar direccion se insertar muy separado</t>
+  </si>
+  <si>
+    <t>agregar olvide contraseña</t>
+  </si>
+  <si>
+    <t>validar correo cliente</t>
+  </si>
+  <si>
+    <t>checar api colonias</t>
+  </si>
+  <si>
+    <t>ajustar buscador</t>
+  </si>
+  <si>
+    <t>resaltar productos sin existendcia con otro xolor en catqlogo</t>
+  </si>
+  <si>
+    <t>productos sin receta</t>
+  </si>
+  <si>
+    <t>Para la exposicion revisor</t>
+  </si>
+  <si>
+    <t>Ejemplos de compra productos:</t>
+  </si>
+  <si>
+    <t>solo Medicamentos y con img</t>
+  </si>
+  <si>
+    <t>exponer en menosde 40min</t>
+  </si>
+  <si>
+    <t>CORREGIDOS</t>
+  </si>
+  <si>
+    <t>PUNTO VENTA</t>
+  </si>
+  <si>
+    <t>FALTA HACER ECOMMERCE</t>
+  </si>
+  <si>
+    <t>PARA LA EXPOSICION</t>
+  </si>
+  <si>
+    <t>CHECAR CLOSE DE MODAL ARRIBA</t>
+  </si>
+  <si>
+    <t>checar que cuando abra el modal solo cargue pedidos que aun no se entregan a aun no se cancelan</t>
+  </si>
+  <si>
+    <t>Cargar en un boton historial de pedidos ya entregados y cancelados</t>
+  </si>
+  <si>
+    <t>revisar regresar productos cuando fue cancelado</t>
   </si>
 </sst>
 </file>
@@ -3939,6 +4186,350 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2F1761-FD8C-473C-BD91-C256CBB756AE}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L1" t="s">
+        <v>712</v>
+      </c>
+      <c r="R1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F2" t="s">
+        <v>710</v>
+      </c>
+      <c r="L2" t="s">
+        <v>680</v>
+      </c>
+      <c r="R2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F3" t="s">
+        <v>655</v>
+      </c>
+      <c r="R3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F4" t="s">
+        <v>656</v>
+      </c>
+      <c r="L4" t="s">
+        <v>682</v>
+      </c>
+      <c r="R4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>657</v>
+      </c>
+      <c r="R5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" t="s">
+        <v>660</v>
+      </c>
+      <c r="L8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" t="s">
+        <v>661</v>
+      </c>
+      <c r="L9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>644</v>
+      </c>
+      <c r="F10" t="s">
+        <v>662</v>
+      </c>
+      <c r="L10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>645</v>
+      </c>
+      <c r="F11" t="s">
+        <v>663</v>
+      </c>
+      <c r="L11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>647</v>
+      </c>
+      <c r="F13" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>648</v>
+      </c>
+      <c r="L14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" t="s">
+        <v>666</v>
+      </c>
+      <c r="L15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>650</v>
+      </c>
+      <c r="F16" t="s">
+        <v>667</v>
+      </c>
+      <c r="L16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>651</v>
+      </c>
+      <c r="F17" t="s">
+        <v>668</v>
+      </c>
+      <c r="L17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" t="s">
+        <v>669</v>
+      </c>
+      <c r="L18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>653</v>
+      </c>
+      <c r="F19" t="s">
+        <v>670</v>
+      </c>
+      <c r="L19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" t="s">
+        <v>672</v>
+      </c>
+      <c r="L21" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>674</v>
+      </c>
+      <c r="L23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>676</v>
+      </c>
+      <c r="L25" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>683</v>
+      </c>
+      <c r="L27" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>688</v>
+      </c>
+      <c r="G35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20EA784-6125-4E30-9CE1-8BF1A2BFBD38}">
   <dimension ref="A1:V103"/>
@@ -7138,8 +7729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
